--- a/Project-1-Post-Processing-of-Hadoop-Results.xlsx
+++ b/Project-1-Post-Processing-of-Hadoop-Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Question1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,10 @@
     <sheet name="Question2" sheetId="2" r:id="rId3"/>
     <sheet name="Question3" sheetId="3" r:id="rId4"/>
     <sheet name="Question4" sheetId="4" r:id="rId5"/>
+    <sheet name="CustomQuestion" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CustomQuestion!$A$2:$C$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Question1!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Question3!$A$1:$E$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Question4!$A$1:$E$163</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="487">
   <si>
     <t>Year</t>
   </si>
@@ -1466,6 +1468,24 @@
   </si>
   <si>
     <t>PUT THE TABLE IN COLUMNS A THROUGH D IN THE PPT SLIDE BACKUPS!</t>
+  </si>
+  <si>
+    <t>Micronesia - Fed. Sts.</t>
+  </si>
+  <si>
+    <t>Country or Region</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>No. of Days Needed to Start Up a Business</t>
+  </si>
+  <si>
+    <t>No. of Procedures Needed to Register a Business</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1566,15 +1586,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1594,14 +1605,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,7 +1675,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1898,11 +1920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159758976"/>
-        <c:axId val="159760768"/>
+        <c:axId val="190841216"/>
+        <c:axId val="190843136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159758976"/>
+        <c:axId val="190841216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,13 +1951,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159760768"/>
+        <c:crossAx val="190843136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1943,7 +1964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159760768"/>
+        <c:axId val="190843136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,14 +1991,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159758976"/>
+        <c:crossAx val="190841216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,11 +2257,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148565376"/>
-        <c:axId val="148567168"/>
+        <c:axId val="190770560"/>
+        <c:axId val="190772736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148565376"/>
+        <c:axId val="190770560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,13 +2288,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148567168"/>
+        <c:crossAx val="190772736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,7 +2301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148567168"/>
+        <c:axId val="190772736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2324,7 +2343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148565376"/>
+        <c:crossAx val="190770560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -2580,11 +2599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="301877504"/>
-        <c:axId val="163955840"/>
+        <c:axId val="190837888"/>
+        <c:axId val="190839808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301877504"/>
+        <c:axId val="190837888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2617,7 +2636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163955840"/>
+        <c:crossAx val="190839808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,7 +2644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163955840"/>
+        <c:axId val="190839808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2667,7 +2686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301877504"/>
+        <c:crossAx val="190837888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -3454,26 +3473,26 @@
       <c r="D1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="N1" s="19" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="N1" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3482,21 +3501,21 @@
       <c r="B2">
         <v>2012</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>18.473790000000001</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(A2,Question1VLookup!$A:$B,2,0)</f>
         <v>East Asia &amp; Pacific</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <f>AVERAGE(C2:C15)</f>
         <v>15.19752714285714</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <f>COUNT(C2:C15)</f>
         <v>14</v>
       </c>
@@ -3508,21 +3527,21 @@
       <c r="B3">
         <v>2007</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>2.70695</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(A3,Question1VLookup!$A:$B,2,0)</f>
         <v>East Asia &amp; Pacific</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <f>AVERAGE(C16:C20)</f>
         <v>17.033016</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <f>COUNT(C16:C20)</f>
         <v>5</v>
       </c>
@@ -3534,21 +3553,21 @@
       <c r="B4">
         <v>2015</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>28.214469999999999</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(A4,Question1VLookup!$A:$B,2,0)</f>
         <v>East Asia &amp; Pacific</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <f>AVERAGE(C21:C38)</f>
         <v>13.014697222222223</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <f>COUNT(C21:C38)</f>
         <v>18</v>
       </c>
@@ -3560,21 +3579,21 @@
       <c r="B5">
         <v>2006</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>20.249829999999999</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(A5,Question1VLookup!$A:$B,2,0)</f>
         <v>East Asia &amp; Pacific</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <f>AVERAGE(C40:C47)</f>
         <v>14.470543749999999</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
         <f>COUNT(C39:C47)</f>
         <v>9</v>
       </c>
@@ -3586,21 +3605,21 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>14.57813</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(A6,Question1VLookup!$A:$B,2,0)</f>
         <v>East Asia &amp; Pacific</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <f>AVERAGE(C48:C51)</f>
         <v>14.403202499999999</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <f>COUNT(C48:C51)</f>
         <v>4</v>
       </c>
@@ -3612,21 +3631,21 @@
       <c r="B7">
         <v>2015</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>12.4238</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(A7,Question1VLookup!$A:$B,2,0)</f>
         <v>East Asia &amp; Pacific</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <f>AVERAGE(C52:C81)</f>
         <v>3.3845253333333334</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <f>COUNT(C52:C81)</f>
         <v>30</v>
       </c>
@@ -3638,7 +3657,7 @@
       <c r="B8">
         <v>2015</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>12.124040000000001</v>
       </c>
       <c r="D8" t="str">
@@ -3653,7 +3672,7 @@
       <c r="B9">
         <v>2015</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>20.53754</v>
       </c>
       <c r="D9" t="str">
@@ -3668,7 +3687,7 @@
       <c r="B10">
         <v>2011</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>16.855370000000001</v>
       </c>
       <c r="D10" t="str">
@@ -3683,7 +3702,7 @@
       <c r="B11">
         <v>1998</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>0.59560999999999997</v>
       </c>
       <c r="D11" t="str">
@@ -3698,7 +3717,7 @@
       <c r="B12">
         <v>2006</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>24.786439999999999</v>
       </c>
       <c r="D12" t="str">
@@ -3713,7 +3732,7 @@
       <c r="B13">
         <v>2000</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>1.5217400000000001</v>
       </c>
       <c r="D13" t="str">
@@ -3728,7 +3747,7 @@
       <c r="B14">
         <v>2009</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>18.40427</v>
       </c>
       <c r="D14" t="str">
@@ -3743,7 +3762,7 @@
       <c r="B15">
         <v>2015</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>21.293399999999998</v>
       </c>
       <c r="D15" t="str">
@@ -3758,7 +3777,7 @@
       <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <v>16.431799999999999</v>
       </c>
       <c r="D16" t="str">
@@ -3773,7 +3792,7 @@
       <c r="B17">
         <v>2014</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>21.33333</v>
       </c>
       <c r="D17" t="str">
@@ -3788,7 +3807,7 @@
       <c r="B18">
         <v>2014</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="14">
         <v>10.06142</v>
       </c>
       <c r="D18" t="str">
@@ -3803,7 +3822,7 @@
       <c r="B19">
         <v>2012</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="14">
         <v>27.134989999999998</v>
       </c>
       <c r="D19" t="str">
@@ -3818,7 +3837,7 @@
       <c r="B20">
         <v>2011</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="14">
         <v>10.20354</v>
       </c>
       <c r="D20" t="str">
@@ -3833,7 +3852,7 @@
       <c r="B21">
         <v>2012</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="14">
         <v>3.1887799999999999</v>
       </c>
       <c r="D21" t="str">
@@ -3848,7 +3867,7 @@
       <c r="B22">
         <v>2014</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="14">
         <v>13.71856</v>
       </c>
       <c r="D22" t="str">
@@ -3863,7 +3882,7 @@
       <c r="B23">
         <v>2014</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="14">
         <v>20.491800000000001</v>
       </c>
       <c r="D23" t="str">
@@ -3878,7 +3897,7 @@
       <c r="B24">
         <v>2015</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="14">
         <v>9.5695099999999993</v>
       </c>
       <c r="D24" t="str">
@@ -3893,7 +3912,7 @@
       <c r="B25">
         <v>2014</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="14">
         <v>12.6661</v>
       </c>
       <c r="D25" t="str">
@@ -3908,7 +3927,7 @@
       <c r="B26">
         <v>2015</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="14">
         <v>22.549119999999998</v>
       </c>
       <c r="D26" t="str">
@@ -3923,7 +3942,7 @@
       <c r="B27">
         <v>2014</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="14">
         <v>24.148879999999998</v>
       </c>
       <c r="D27" t="str">
@@ -3938,7 +3957,7 @@
       <c r="B28">
         <v>2014</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <v>27.83287</v>
       </c>
       <c r="D28" t="str">
@@ -3953,7 +3972,7 @@
       <c r="B29">
         <v>2014</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>12.21645</v>
       </c>
       <c r="D29" t="str">
@@ -3968,7 +3987,7 @@
       <c r="B30">
         <v>2007</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>1.27199</v>
       </c>
       <c r="D30" t="str">
@@ -3983,7 +4002,7 @@
       <c r="B31">
         <v>2012</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <v>3.7369500000000002</v>
       </c>
       <c r="D31" t="str">
@@ -3998,7 +4017,7 @@
       <c r="B32">
         <v>2014</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="14">
         <v>13.49349</v>
       </c>
       <c r="D32" t="str">
@@ -4013,7 +4032,7 @@
       <c r="B33">
         <v>2013</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="14">
         <v>22.161269999999998</v>
       </c>
       <c r="D33" t="str">
@@ -4028,7 +4047,7 @@
       <c r="B34">
         <v>2002</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="14">
         <v>3.6972999999999998</v>
       </c>
       <c r="D34" t="str">
@@ -4043,7 +4062,7 @@
       <c r="B35">
         <v>2005</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="14">
         <v>4.7423900000000003</v>
       </c>
       <c r="D35" t="str">
@@ -4058,7 +4077,7 @@
       <c r="B36">
         <v>2004</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="14">
         <v>6.3826799999999997</v>
       </c>
       <c r="D36" t="str">
@@ -4073,7 +4092,7 @@
       <c r="B37">
         <v>1999</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="14">
         <v>7.6615599999999997</v>
       </c>
       <c r="D37" t="str">
@@ -4088,7 +4107,7 @@
       <c r="B38">
         <v>2009</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="14">
         <v>24.734850000000002</v>
       </c>
       <c r="D38" t="str">
@@ -4103,7 +4122,7 @@
       <c r="B39">
         <v>2006</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="14">
         <v>19.68646</v>
       </c>
       <c r="D39" t="str">
@@ -4118,7 +4137,7 @@
       <c r="B40">
         <v>2005</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="14">
         <v>0.88615999999999995</v>
       </c>
       <c r="D40" t="str">
@@ -4133,7 +4152,7 @@
       <c r="B41">
         <v>2013</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="14">
         <v>25.838950000000001</v>
       </c>
       <c r="D41" t="str">
@@ -4148,7 +4167,7 @@
       <c r="B42">
         <v>2004</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="14">
         <v>8.7442600000000006</v>
       </c>
       <c r="D42" t="str">
@@ -4163,7 +4182,7 @@
       <c r="B43">
         <v>2013</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="14">
         <v>17.439080000000001</v>
       </c>
       <c r="D43" t="str">
@@ -4178,7 +4197,7 @@
       <c r="B44">
         <v>2011</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="14">
         <v>29.889089999999999</v>
       </c>
       <c r="D44" t="str">
@@ -4193,7 +4212,7 @@
       <c r="B45">
         <v>2006</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="14">
         <v>4.25495</v>
       </c>
       <c r="D45" t="str">
@@ -4208,7 +4227,7 @@
       <c r="B46">
         <v>2015</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="14">
         <v>16.714580000000002</v>
       </c>
       <c r="D46" t="str">
@@ -4223,7 +4242,7 @@
       <c r="B47">
         <v>2010</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="14">
         <v>11.99728</v>
       </c>
       <c r="D47" t="str">
@@ -4238,7 +4257,7 @@
       <c r="B48">
         <v>2012</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="14">
         <v>6.3227099999999998</v>
       </c>
       <c r="D48" t="str">
@@ -4253,7 +4272,7 @@
       <c r="B49">
         <v>2014</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="14">
         <v>28.095939999999999</v>
       </c>
       <c r="D49" t="str">
@@ -4268,7 +4287,7 @@
       <c r="B50">
         <v>2013</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="14">
         <v>9.0903500000000008</v>
       </c>
       <c r="D50" t="str">
@@ -4283,7 +4302,7 @@
       <c r="B51">
         <v>2015</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="14">
         <v>14.103809999999999</v>
       </c>
       <c r="D51" t="str">
@@ -4298,7 +4317,7 @@
       <c r="B52">
         <v>1999</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="14">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="D52" t="str">
@@ -4313,7 +4332,7 @@
       <c r="B53">
         <v>2008</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="14">
         <v>1.15828</v>
       </c>
       <c r="D53" t="str">
@@ -4328,7 +4347,7 @@
       <c r="B54">
         <v>2013</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="14">
         <v>2.3878400000000002</v>
       </c>
       <c r="D54" t="str">
@@ -4343,7 +4362,7 @@
       <c r="B55">
         <v>2013</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="14">
         <v>7.0458800000000004</v>
       </c>
       <c r="D55" t="str">
@@ -4358,7 +4377,7 @@
       <c r="B56">
         <v>2000</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="14">
         <v>7.5060000000000002E-2</v>
       </c>
       <c r="D56" t="str">
@@ -4373,7 +4392,7 @@
       <c r="B57">
         <v>1999</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="14">
         <v>1.0843400000000001</v>
       </c>
       <c r="D57" t="str">
@@ -4388,7 +4407,7 @@
       <c r="B58">
         <v>2014</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="14">
         <v>0.62590999999999997</v>
       </c>
       <c r="D58" t="str">
@@ -4403,7 +4422,7 @@
       <c r="B59">
         <v>2010</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="14">
         <v>2.1958600000000001</v>
       </c>
       <c r="D59" t="str">
@@ -4418,7 +4437,7 @@
       <c r="B60">
         <v>2012</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="14">
         <v>5.636E-2</v>
       </c>
       <c r="D60" t="str">
@@ -4433,7 +4452,7 @@
       <c r="B61">
         <v>2013</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="14">
         <v>7.7965</v>
       </c>
       <c r="D61" t="str">
@@ -4448,7 +4467,7 @@
       <c r="B62">
         <v>2014</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="14">
         <v>4.5876900000000003</v>
       </c>
       <c r="D62" t="str">
@@ -4463,7 +4482,7 @@
       <c r="B63">
         <v>2001</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="14">
         <v>1.75803</v>
       </c>
       <c r="D63" t="str">
@@ -4478,7 +4497,7 @@
       <c r="B64">
         <v>2014</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="14">
         <v>4.2272999999999996</v>
       </c>
       <c r="D64" t="str">
@@ -4493,7 +4512,7 @@
       <c r="B65">
         <v>2000</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="14">
         <v>3.58379</v>
       </c>
       <c r="D65" t="str">
@@ -4508,7 +4527,7 @@
       <c r="B66">
         <v>2014</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="14">
         <v>2.07124</v>
       </c>
       <c r="D66" t="str">
@@ -4523,7 +4542,7 @@
       <c r="B67">
         <v>2007</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="14">
         <v>0.34012999999999999</v>
       </c>
       <c r="D67" t="str">
@@ -4538,7 +4557,7 @@
       <c r="B68">
         <v>2016</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="14">
         <v>2.4161600000000001</v>
       </c>
       <c r="D68" t="str">
@@ -4553,7 +4572,7 @@
       <c r="B69">
         <v>2010</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="14">
         <v>0.19817000000000001</v>
       </c>
       <c r="D69" t="str">
@@ -4568,7 +4587,7 @@
       <c r="B70">
         <v>2008</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="14">
         <v>8.4679599999999997</v>
       </c>
       <c r="D70" t="str">
@@ -4583,7 +4602,7 @@
       <c r="B71">
         <v>2010</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="14">
         <v>0.49281000000000003</v>
       </c>
       <c r="D71" t="str">
@@ -4598,7 +4617,7 @@
       <c r="B72">
         <v>1999</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="14">
         <v>1.6717</v>
       </c>
       <c r="D72" t="str">
@@ -4613,7 +4632,7 @@
       <c r="B73">
         <v>2013</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="14">
         <v>2.0481099999999999</v>
       </c>
       <c r="D73" t="str">
@@ -4628,7 +4647,7 @@
       <c r="B74">
         <v>2015</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="14">
         <v>14.68144</v>
       </c>
       <c r="D74" t="str">
@@ -4643,7 +4662,7 @@
       <c r="B75">
         <v>2000</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="14">
         <v>2.01946</v>
       </c>
       <c r="D75" t="str">
@@ -4658,7 +4677,7 @@
       <c r="B76">
         <v>2014</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="14">
         <v>10.04585</v>
       </c>
       <c r="D76" t="str">
@@ -4673,7 +4692,7 @@
       <c r="B77">
         <v>2012</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="14">
         <v>11.17831</v>
       </c>
       <c r="D77" t="str">
@@ -4688,7 +4707,7 @@
       <c r="B78">
         <v>2013</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="14">
         <v>6.5051100000000002</v>
       </c>
       <c r="D78" t="str">
@@ -4703,7 +4722,7 @@
       <c r="B79">
         <v>2004</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="14">
         <v>5.8229999999999997E-2</v>
       </c>
       <c r="D79" t="str">
@@ -4718,7 +4737,7 @@
       <c r="B80">
         <v>2004</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="14">
         <v>1.6646700000000001</v>
       </c>
       <c r="D80" t="str">
@@ -4733,7 +4752,7 @@
       <c r="B81">
         <v>2013</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="14">
         <v>0.99826999999999999</v>
       </c>
       <c r="D81" t="str">
@@ -6787,28 +6806,28 @@
       <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -6829,11 +6848,11 @@
       <c r="F3">
         <v>0.35899999999999999</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -6855,11 +6874,11 @@
       <c r="F4">
         <v>1.304</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7191,10 +7210,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7">
         <f>AVERAGE(B20:P20)</f>
         <v>0.95586666666666686</v>
@@ -7248,10 +7267,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="7">
         <f>AVERAGE(B22:P22)</f>
         <v>0.51600000000000001</v>
@@ -7305,10 +7324,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="7">
         <f>AVERAGE(B24:P24)</f>
         <v>1.0248571428571429</v>
@@ -7365,10 +7384,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="7">
         <f>AVERAGE(B26:P26)</f>
         <v>0.78953333333333331</v>
@@ -7421,13 +7440,13 @@
       <c r="E1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7443,7 +7462,7 @@
         <v>962.79</v>
       </c>
       <c r="E2">
-        <f>ABS(D2)</f>
+        <f t="shared" ref="E2:E33" si="0">ABS(D2)</f>
         <v>962.79</v>
       </c>
     </row>
@@ -7461,7 +7480,7 @@
         <v>99.59</v>
       </c>
       <c r="E3">
-        <f>ABS(D3)</f>
+        <f t="shared" si="0"/>
         <v>99.59</v>
       </c>
     </row>
@@ -7479,7 +7498,7 @@
         <v>79.099999999999994</v>
       </c>
       <c r="E4">
-        <f>ABS(D4)</f>
+        <f t="shared" si="0"/>
         <v>79.099999999999994</v>
       </c>
     </row>
@@ -7497,7 +7516,7 @@
         <v>67.31</v>
       </c>
       <c r="E5">
-        <f>ABS(D5)</f>
+        <f t="shared" si="0"/>
         <v>67.31</v>
       </c>
     </row>
@@ -7515,7 +7534,7 @@
         <v>62.13</v>
       </c>
       <c r="E6">
-        <f>ABS(D6)</f>
+        <f t="shared" si="0"/>
         <v>62.13</v>
       </c>
     </row>
@@ -7533,7 +7552,7 @@
         <v>49.45</v>
       </c>
       <c r="E7">
-        <f>ABS(D7)</f>
+        <f t="shared" si="0"/>
         <v>49.45</v>
       </c>
     </row>
@@ -7551,7 +7570,7 @@
         <v>46.27</v>
       </c>
       <c r="E8">
-        <f>ABS(D8)</f>
+        <f t="shared" si="0"/>
         <v>46.27</v>
       </c>
     </row>
@@ -7569,7 +7588,7 @@
         <v>-43.21</v>
       </c>
       <c r="E9">
-        <f>ABS(D9)</f>
+        <f t="shared" si="0"/>
         <v>43.21</v>
       </c>
     </row>
@@ -7587,7 +7606,7 @@
         <v>38.869999999999997</v>
       </c>
       <c r="E10">
-        <f>ABS(D10)</f>
+        <f t="shared" si="0"/>
         <v>38.869999999999997</v>
       </c>
     </row>
@@ -7605,7 +7624,7 @@
         <v>35.03</v>
       </c>
       <c r="E11">
-        <f>ABS(D11)</f>
+        <f t="shared" si="0"/>
         <v>35.03</v>
       </c>
     </row>
@@ -7623,7 +7642,7 @@
         <v>34.92</v>
       </c>
       <c r="E12">
-        <f>ABS(D12)</f>
+        <f t="shared" si="0"/>
         <v>34.92</v>
       </c>
     </row>
@@ -7641,7 +7660,7 @@
         <v>33.9</v>
       </c>
       <c r="E13">
-        <f>ABS(D13)</f>
+        <f t="shared" si="0"/>
         <v>33.9</v>
       </c>
     </row>
@@ -7659,7 +7678,7 @@
         <v>28.85</v>
       </c>
       <c r="E14">
-        <f>ABS(D14)</f>
+        <f t="shared" si="0"/>
         <v>28.85</v>
       </c>
     </row>
@@ -7677,7 +7696,7 @@
         <v>28.48</v>
       </c>
       <c r="E15">
-        <f>ABS(D15)</f>
+        <f t="shared" si="0"/>
         <v>28.48</v>
       </c>
     </row>
@@ -7695,7 +7714,7 @@
         <v>25.01</v>
       </c>
       <c r="E16">
-        <f>ABS(D16)</f>
+        <f t="shared" si="0"/>
         <v>25.01</v>
       </c>
     </row>
@@ -7713,7 +7732,7 @@
         <v>24.49</v>
       </c>
       <c r="E17">
-        <f>ABS(D17)</f>
+        <f t="shared" si="0"/>
         <v>24.49</v>
       </c>
     </row>
@@ -7731,7 +7750,7 @@
         <v>24.3</v>
       </c>
       <c r="E18">
-        <f>ABS(D18)</f>
+        <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
     </row>
@@ -7749,7 +7768,7 @@
         <v>24.26</v>
       </c>
       <c r="E19">
-        <f>ABS(D19)</f>
+        <f t="shared" si="0"/>
         <v>24.26</v>
       </c>
     </row>
@@ -7767,7 +7786,7 @@
         <v>-22.06</v>
       </c>
       <c r="E20">
-        <f>ABS(D20)</f>
+        <f t="shared" si="0"/>
         <v>22.06</v>
       </c>
     </row>
@@ -7785,7 +7804,7 @@
         <v>19.07</v>
       </c>
       <c r="E21">
-        <f>ABS(D21)</f>
+        <f t="shared" si="0"/>
         <v>19.07</v>
       </c>
     </row>
@@ -7803,7 +7822,7 @@
         <v>-18.47</v>
       </c>
       <c r="E22">
-        <f>ABS(D22)</f>
+        <f t="shared" si="0"/>
         <v>18.47</v>
       </c>
     </row>
@@ -7821,7 +7840,7 @@
         <v>18.45</v>
       </c>
       <c r="E23">
-        <f>ABS(D23)</f>
+        <f t="shared" si="0"/>
         <v>18.45</v>
       </c>
     </row>
@@ -7839,7 +7858,7 @@
         <v>-18.239999999999998</v>
       </c>
       <c r="E24">
-        <f>ABS(D24)</f>
+        <f t="shared" si="0"/>
         <v>18.239999999999998</v>
       </c>
     </row>
@@ -7857,7 +7876,7 @@
         <v>-17.57</v>
       </c>
       <c r="E25">
-        <f>ABS(D25)</f>
+        <f t="shared" si="0"/>
         <v>17.57</v>
       </c>
     </row>
@@ -7875,7 +7894,7 @@
         <v>-2.4500000000000002</v>
       </c>
       <c r="E26">
-        <f>ABS(D26)</f>
+        <f t="shared" si="0"/>
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -7893,7 +7912,7 @@
         <v>17.36</v>
       </c>
       <c r="E27">
-        <f>ABS(D27)</f>
+        <f t="shared" si="0"/>
         <v>17.36</v>
       </c>
     </row>
@@ -7911,7 +7930,7 @@
         <v>3.92</v>
       </c>
       <c r="E28">
-        <f>ABS(D28)</f>
+        <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
     </row>
@@ -7929,7 +7948,7 @@
         <v>16.77</v>
       </c>
       <c r="E29">
-        <f>ABS(D29)</f>
+        <f t="shared" si="0"/>
         <v>16.77</v>
       </c>
     </row>
@@ -7947,7 +7966,7 @@
         <v>16.75</v>
       </c>
       <c r="E30">
-        <f>ABS(D30)</f>
+        <f t="shared" si="0"/>
         <v>16.75</v>
       </c>
     </row>
@@ -7965,7 +7984,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="E31">
-        <f>ABS(D31)</f>
+        <f t="shared" si="0"/>
         <v>16.670000000000002</v>
       </c>
     </row>
@@ -7983,7 +8002,7 @@
         <v>-16.18</v>
       </c>
       <c r="E32">
-        <f>ABS(D32)</f>
+        <f t="shared" si="0"/>
         <v>16.18</v>
       </c>
     </row>
@@ -8001,7 +8020,7 @@
         <v>-15.82</v>
       </c>
       <c r="E33">
-        <f>ABS(D33)</f>
+        <f t="shared" si="0"/>
         <v>15.82</v>
       </c>
     </row>
@@ -8019,7 +8038,7 @@
         <v>-15.5</v>
       </c>
       <c r="E34">
-        <f>ABS(D34)</f>
+        <f t="shared" ref="E34:E65" si="1">ABS(D34)</f>
         <v>15.5</v>
       </c>
     </row>
@@ -8037,7 +8056,7 @@
         <v>15.44</v>
       </c>
       <c r="E35">
-        <f>ABS(D35)</f>
+        <f t="shared" si="1"/>
         <v>15.44</v>
       </c>
     </row>
@@ -8055,7 +8074,7 @@
         <v>15.27</v>
       </c>
       <c r="E36">
-        <f>ABS(D36)</f>
+        <f t="shared" si="1"/>
         <v>15.27</v>
       </c>
     </row>
@@ -8073,7 +8092,7 @@
         <v>13.9</v>
       </c>
       <c r="E37">
-        <f>ABS(D37)</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
     </row>
@@ -8091,7 +8110,7 @@
         <v>-5.84</v>
       </c>
       <c r="E38">
-        <f>ABS(D38)</f>
+        <f t="shared" si="1"/>
         <v>5.84</v>
       </c>
     </row>
@@ -8109,7 +8128,7 @@
         <v>13.84</v>
       </c>
       <c r="E39">
-        <f>ABS(D39)</f>
+        <f t="shared" si="1"/>
         <v>13.84</v>
       </c>
     </row>
@@ -8127,7 +8146,7 @@
         <v>-13.83</v>
       </c>
       <c r="E40">
-        <f>ABS(D40)</f>
+        <f t="shared" si="1"/>
         <v>13.83</v>
       </c>
     </row>
@@ -8145,7 +8164,7 @@
         <v>13.59</v>
       </c>
       <c r="E41">
-        <f>ABS(D41)</f>
+        <f t="shared" si="1"/>
         <v>13.59</v>
       </c>
     </row>
@@ -8163,7 +8182,7 @@
         <v>13.53</v>
       </c>
       <c r="E42">
-        <f>ABS(D42)</f>
+        <f t="shared" si="1"/>
         <v>13.53</v>
       </c>
     </row>
@@ -8181,7 +8200,7 @@
         <v>13.34</v>
       </c>
       <c r="E43">
-        <f>ABS(D43)</f>
+        <f t="shared" si="1"/>
         <v>13.34</v>
       </c>
     </row>
@@ -8199,7 +8218,7 @@
         <v>-5.96</v>
       </c>
       <c r="E44">
-        <f>ABS(D44)</f>
+        <f t="shared" si="1"/>
         <v>5.96</v>
       </c>
     </row>
@@ -8217,7 +8236,7 @@
         <v>-0.25</v>
       </c>
       <c r="E45">
-        <f>ABS(D45)</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
@@ -8235,7 +8254,7 @@
         <v>4.58</v>
       </c>
       <c r="E46">
-        <f>ABS(D46)</f>
+        <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
     </row>
@@ -8253,7 +8272,7 @@
         <v>9.43</v>
       </c>
       <c r="E47">
-        <f>ABS(D47)</f>
+        <f t="shared" si="1"/>
         <v>9.43</v>
       </c>
     </row>
@@ -8271,7 +8290,7 @@
         <v>-3.34</v>
       </c>
       <c r="E48">
-        <f>ABS(D48)</f>
+        <f t="shared" si="1"/>
         <v>3.34</v>
       </c>
     </row>
@@ -8289,7 +8308,7 @@
         <v>12.78</v>
       </c>
       <c r="E49">
-        <f>ABS(D49)</f>
+        <f t="shared" si="1"/>
         <v>12.78</v>
       </c>
     </row>
@@ -8307,7 +8326,7 @@
         <v>-12.67</v>
       </c>
       <c r="E50">
-        <f>ABS(D50)</f>
+        <f t="shared" si="1"/>
         <v>12.67</v>
       </c>
     </row>
@@ -8325,7 +8344,7 @@
         <v>12.59</v>
       </c>
       <c r="E51">
-        <f>ABS(D51)</f>
+        <f t="shared" si="1"/>
         <v>12.59</v>
       </c>
     </row>
@@ -8343,7 +8362,7 @@
         <v>12.4</v>
       </c>
       <c r="E52">
-        <f>ABS(D52)</f>
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
     </row>
@@ -8361,7 +8380,7 @@
         <v>12.37</v>
       </c>
       <c r="E53">
-        <f>ABS(D53)</f>
+        <f t="shared" si="1"/>
         <v>12.37</v>
       </c>
     </row>
@@ -8379,7 +8398,7 @@
         <v>-12.28</v>
       </c>
       <c r="E54">
-        <f>ABS(D54)</f>
+        <f t="shared" si="1"/>
         <v>12.28</v>
       </c>
     </row>
@@ -8397,7 +8416,7 @@
         <v>-12.04</v>
       </c>
       <c r="E55">
-        <f>ABS(D55)</f>
+        <f t="shared" si="1"/>
         <v>12.04</v>
       </c>
     </row>
@@ -8415,7 +8434,7 @@
         <v>-11.83</v>
       </c>
       <c r="E56">
-        <f>ABS(D56)</f>
+        <f t="shared" si="1"/>
         <v>11.83</v>
       </c>
     </row>
@@ -8433,7 +8452,7 @@
         <v>-11.79</v>
       </c>
       <c r="E57">
-        <f>ABS(D57)</f>
+        <f t="shared" si="1"/>
         <v>11.79</v>
       </c>
     </row>
@@ -8451,7 +8470,7 @@
         <v>11.51</v>
       </c>
       <c r="E58">
-        <f>ABS(D58)</f>
+        <f t="shared" si="1"/>
         <v>11.51</v>
       </c>
     </row>
@@ -8469,7 +8488,7 @@
         <v>-11.4</v>
       </c>
       <c r="E59">
-        <f>ABS(D59)</f>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
     </row>
@@ -8487,7 +8506,7 @@
         <v>-11.34</v>
       </c>
       <c r="E60">
-        <f>ABS(D60)</f>
+        <f t="shared" si="1"/>
         <v>11.34</v>
       </c>
     </row>
@@ -8505,7 +8524,7 @@
         <v>-4.22</v>
       </c>
       <c r="E61">
-        <f>ABS(D61)</f>
+        <f t="shared" si="1"/>
         <v>4.22</v>
       </c>
     </row>
@@ -8523,7 +8542,7 @@
         <v>-11.32</v>
       </c>
       <c r="E62">
-        <f>ABS(D62)</f>
+        <f t="shared" si="1"/>
         <v>11.32</v>
       </c>
     </row>
@@ -8541,7 +8560,7 @@
         <v>11.26</v>
       </c>
       <c r="E63">
-        <f>ABS(D63)</f>
+        <f t="shared" si="1"/>
         <v>11.26</v>
       </c>
     </row>
@@ -8559,7 +8578,7 @@
         <v>-10.61</v>
       </c>
       <c r="E64">
-        <f>ABS(D64)</f>
+        <f t="shared" si="1"/>
         <v>10.61</v>
       </c>
     </row>
@@ -8577,7 +8596,7 @@
         <v>10.52</v>
       </c>
       <c r="E65">
-        <f>ABS(D65)</f>
+        <f t="shared" si="1"/>
         <v>10.52</v>
       </c>
     </row>
@@ -8595,7 +8614,7 @@
         <v>-10.5</v>
       </c>
       <c r="E66">
-        <f>ABS(D66)</f>
+        <f t="shared" ref="E66:E97" si="2">ABS(D66)</f>
         <v>10.5</v>
       </c>
     </row>
@@ -8613,7 +8632,7 @@
         <v>10.47</v>
       </c>
       <c r="E67">
-        <f>ABS(D67)</f>
+        <f t="shared" si="2"/>
         <v>10.47</v>
       </c>
     </row>
@@ -8631,7 +8650,7 @@
         <v>10.25</v>
       </c>
       <c r="E68">
-        <f>ABS(D68)</f>
+        <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
     </row>
@@ -8649,7 +8668,7 @@
         <v>-10.1</v>
       </c>
       <c r="E69">
-        <f>ABS(D69)</f>
+        <f t="shared" si="2"/>
         <v>10.1</v>
       </c>
     </row>
@@ -8667,7 +8686,7 @@
         <v>-10.1</v>
       </c>
       <c r="E70">
-        <f>ABS(D70)</f>
+        <f t="shared" si="2"/>
         <v>10.1</v>
       </c>
     </row>
@@ -8685,7 +8704,7 @@
         <v>9.61</v>
       </c>
       <c r="E71">
-        <f>ABS(D71)</f>
+        <f t="shared" si="2"/>
         <v>9.61</v>
       </c>
     </row>
@@ -8703,7 +8722,7 @@
         <v>-9.5</v>
       </c>
       <c r="E72">
-        <f>ABS(D72)</f>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
@@ -8721,7 +8740,7 @@
         <v>-9.43</v>
       </c>
       <c r="E73">
-        <f>ABS(D73)</f>
+        <f t="shared" si="2"/>
         <v>9.43</v>
       </c>
     </row>
@@ -8739,7 +8758,7 @@
         <v>-9.31</v>
       </c>
       <c r="E74">
-        <f>ABS(D74)</f>
+        <f t="shared" si="2"/>
         <v>9.31</v>
       </c>
     </row>
@@ -8757,7 +8776,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E75">
-        <f>ABS(D75)</f>
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -8775,7 +8794,7 @@
         <v>9.06</v>
       </c>
       <c r="E76">
-        <f>ABS(D76)</f>
+        <f t="shared" si="2"/>
         <v>9.06</v>
       </c>
     </row>
@@ -8793,7 +8812,7 @@
         <v>-8.86</v>
       </c>
       <c r="E77">
-        <f>ABS(D77)</f>
+        <f t="shared" si="2"/>
         <v>8.86</v>
       </c>
     </row>
@@ -8811,7 +8830,7 @@
         <v>8.76</v>
       </c>
       <c r="E78">
-        <f>ABS(D78)</f>
+        <f t="shared" si="2"/>
         <v>8.76</v>
       </c>
     </row>
@@ -8829,7 +8848,7 @@
         <v>8.74</v>
       </c>
       <c r="E79">
-        <f>ABS(D79)</f>
+        <f t="shared" si="2"/>
         <v>8.74</v>
       </c>
     </row>
@@ -8847,7 +8866,7 @@
         <v>8.57</v>
       </c>
       <c r="E80">
-        <f>ABS(D80)</f>
+        <f t="shared" si="2"/>
         <v>8.57</v>
       </c>
     </row>
@@ -8865,7 +8884,7 @@
         <v>8.51</v>
       </c>
       <c r="E81">
-        <f>ABS(D81)</f>
+        <f t="shared" si="2"/>
         <v>8.51</v>
       </c>
     </row>
@@ -8883,7 +8902,7 @@
         <v>-2.73</v>
       </c>
       <c r="E82">
-        <f>ABS(D82)</f>
+        <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
     </row>
@@ -8901,7 +8920,7 @@
         <v>-2.4700000000000002</v>
       </c>
       <c r="E83">
-        <f>ABS(D83)</f>
+        <f t="shared" si="2"/>
         <v>2.4700000000000002</v>
       </c>
     </row>
@@ -8919,7 +8938,7 @@
         <v>-2.73</v>
       </c>
       <c r="E84">
-        <f>ABS(D84)</f>
+        <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
     </row>
@@ -8937,7 +8956,7 @@
         <v>-8.51</v>
       </c>
       <c r="E85">
-        <f>ABS(D85)</f>
+        <f t="shared" si="2"/>
         <v>8.51</v>
       </c>
     </row>
@@ -8955,7 +8974,7 @@
         <v>-8.44</v>
       </c>
       <c r="E86">
-        <f>ABS(D86)</f>
+        <f t="shared" si="2"/>
         <v>8.44</v>
       </c>
     </row>
@@ -8973,7 +8992,7 @@
         <v>-8.34</v>
       </c>
       <c r="E87">
-        <f>ABS(D87)</f>
+        <f t="shared" si="2"/>
         <v>8.34</v>
       </c>
     </row>
@@ -8991,7 +9010,7 @@
         <v>-8.09</v>
       </c>
       <c r="E88">
-        <f>ABS(D88)</f>
+        <f t="shared" si="2"/>
         <v>8.09</v>
       </c>
     </row>
@@ -9009,7 +9028,7 @@
         <v>-7.64</v>
       </c>
       <c r="E89">
-        <f>ABS(D89)</f>
+        <f t="shared" si="2"/>
         <v>7.64</v>
       </c>
     </row>
@@ -9027,7 +9046,7 @@
         <v>-3.08</v>
       </c>
       <c r="E90">
-        <f>ABS(D90)</f>
+        <f t="shared" si="2"/>
         <v>3.08</v>
       </c>
     </row>
@@ -9045,7 +9064,7 @@
         <v>-7.62</v>
       </c>
       <c r="E91">
-        <f>ABS(D91)</f>
+        <f t="shared" si="2"/>
         <v>7.62</v>
       </c>
     </row>
@@ -9063,7 +9082,7 @@
         <v>-7.46</v>
       </c>
       <c r="E92">
-        <f>ABS(D92)</f>
+        <f t="shared" si="2"/>
         <v>7.46</v>
       </c>
     </row>
@@ -9081,7 +9100,7 @@
         <v>7.4</v>
       </c>
       <c r="E93">
-        <f>ABS(D93)</f>
+        <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
     </row>
@@ -9099,7 +9118,7 @@
         <v>7.2</v>
       </c>
       <c r="E94">
-        <f>ABS(D94)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -9117,7 +9136,7 @@
         <v>-6.71</v>
       </c>
       <c r="E95">
-        <f>ABS(D95)</f>
+        <f t="shared" si="2"/>
         <v>6.71</v>
       </c>
     </row>
@@ -9135,7 +9154,7 @@
         <v>-6.63</v>
       </c>
       <c r="E96">
-        <f>ABS(D96)</f>
+        <f t="shared" si="2"/>
         <v>6.63</v>
       </c>
     </row>
@@ -9153,7 +9172,7 @@
         <v>-6.59</v>
       </c>
       <c r="E97">
-        <f>ABS(D97)</f>
+        <f t="shared" si="2"/>
         <v>6.59</v>
       </c>
     </row>
@@ -9171,7 +9190,7 @@
         <v>-6.36</v>
       </c>
       <c r="E98">
-        <f>ABS(D98)</f>
+        <f t="shared" ref="E98:E129" si="3">ABS(D98)</f>
         <v>6.36</v>
       </c>
     </row>
@@ -9189,7 +9208,7 @@
         <v>-6.32</v>
       </c>
       <c r="E99">
-        <f>ABS(D99)</f>
+        <f t="shared" si="3"/>
         <v>6.32</v>
       </c>
     </row>
@@ -9207,7 +9226,7 @@
         <v>-6.16</v>
       </c>
       <c r="E100">
-        <f>ABS(D100)</f>
+        <f t="shared" si="3"/>
         <v>6.16</v>
       </c>
     </row>
@@ -9225,7 +9244,7 @@
         <v>1.98</v>
       </c>
       <c r="E101">
-        <f>ABS(D101)</f>
+        <f t="shared" si="3"/>
         <v>1.98</v>
       </c>
     </row>
@@ -9243,7 +9262,7 @@
         <v>2.8</v>
       </c>
       <c r="E102">
-        <f>ABS(D102)</f>
+        <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
     </row>
@@ -9261,7 +9280,7 @@
         <v>2.56</v>
       </c>
       <c r="E103">
-        <f>ABS(D103)</f>
+        <f t="shared" si="3"/>
         <v>2.56</v>
       </c>
     </row>
@@ -9279,7 +9298,7 @@
         <v>6.12</v>
       </c>
       <c r="E104">
-        <f>ABS(D104)</f>
+        <f t="shared" si="3"/>
         <v>6.12</v>
       </c>
     </row>
@@ -9297,7 +9316,7 @@
         <v>6.02</v>
       </c>
       <c r="E105">
-        <f>ABS(D105)</f>
+        <f t="shared" si="3"/>
         <v>6.02</v>
       </c>
     </row>
@@ -9315,7 +9334,7 @@
         <v>5.68</v>
       </c>
       <c r="E106">
-        <f>ABS(D106)</f>
+        <f t="shared" si="3"/>
         <v>5.68</v>
       </c>
     </row>
@@ -9333,7 +9352,7 @@
         <v>-5.62</v>
       </c>
       <c r="E107">
-        <f>ABS(D107)</f>
+        <f t="shared" si="3"/>
         <v>5.62</v>
       </c>
     </row>
@@ -9351,7 +9370,7 @@
         <v>-5.44</v>
       </c>
       <c r="E108">
-        <f>ABS(D108)</f>
+        <f t="shared" si="3"/>
         <v>5.44</v>
       </c>
     </row>
@@ -9369,7 +9388,7 @@
         <v>-5.36</v>
       </c>
       <c r="E109">
-        <f>ABS(D109)</f>
+        <f t="shared" si="3"/>
         <v>5.36</v>
       </c>
     </row>
@@ -9387,7 +9406,7 @@
         <v>-5.3</v>
       </c>
       <c r="E110">
-        <f>ABS(D110)</f>
+        <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
     </row>
@@ -9405,7 +9424,7 @@
         <v>5.23</v>
       </c>
       <c r="E111">
-        <f>ABS(D111)</f>
+        <f t="shared" si="3"/>
         <v>5.23</v>
       </c>
     </row>
@@ -9423,7 +9442,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="E112">
-        <f>ABS(D112)</f>
+        <f t="shared" si="3"/>
         <v>5.1100000000000003</v>
       </c>
     </row>
@@ -9441,7 +9460,7 @@
         <v>-8.0500000000000007</v>
       </c>
       <c r="E113">
-        <f>ABS(D113)</f>
+        <f t="shared" si="3"/>
         <v>8.0500000000000007</v>
       </c>
     </row>
@@ -9459,7 +9478,7 @@
         <v>-4.97</v>
       </c>
       <c r="E114">
-        <f>ABS(D114)</f>
+        <f t="shared" si="3"/>
         <v>4.97</v>
       </c>
     </row>
@@ -9477,7 +9496,7 @@
         <v>-4.9400000000000004</v>
       </c>
       <c r="E115">
-        <f>ABS(D115)</f>
+        <f t="shared" si="3"/>
         <v>4.9400000000000004</v>
       </c>
     </row>
@@ -9495,7 +9514,7 @@
         <v>-4.97</v>
       </c>
       <c r="E116">
-        <f>ABS(D116)</f>
+        <f t="shared" si="3"/>
         <v>4.97</v>
       </c>
     </row>
@@ -9513,7 +9532,7 @@
         <v>-4.72</v>
       </c>
       <c r="E117">
-        <f>ABS(D117)</f>
+        <f t="shared" si="3"/>
         <v>4.72</v>
       </c>
     </row>
@@ -9531,7 +9550,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="E118">
-        <f>ABS(D118)</f>
+        <f t="shared" si="3"/>
         <v>4.3600000000000003</v>
       </c>
     </row>
@@ -9549,7 +9568,7 @@
         <v>-4.3099999999999996</v>
       </c>
       <c r="E119">
-        <f>ABS(D119)</f>
+        <f t="shared" si="3"/>
         <v>4.3099999999999996</v>
       </c>
     </row>
@@ -9567,7 +9586,7 @@
         <v>-4.21</v>
       </c>
       <c r="E120">
-        <f>ABS(D120)</f>
+        <f t="shared" si="3"/>
         <v>4.21</v>
       </c>
     </row>
@@ -9585,7 +9604,7 @@
         <v>-4.18</v>
       </c>
       <c r="E121">
-        <f>ABS(D121)</f>
+        <f t="shared" si="3"/>
         <v>4.18</v>
       </c>
     </row>
@@ -9603,7 +9622,7 @@
         <v>-4.16</v>
       </c>
       <c r="E122">
-        <f>ABS(D122)</f>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
     </row>
@@ -9621,7 +9640,7 @@
         <v>-4.1399999999999997</v>
       </c>
       <c r="E123">
-        <f>ABS(D123)</f>
+        <f t="shared" si="3"/>
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -9639,7 +9658,7 @@
         <v>-5.56</v>
       </c>
       <c r="E124">
-        <f>ABS(D124)</f>
+        <f t="shared" si="3"/>
         <v>5.56</v>
       </c>
     </row>
@@ -9657,7 +9676,7 @@
         <v>4.05</v>
       </c>
       <c r="E125">
-        <f>ABS(D125)</f>
+        <f t="shared" si="3"/>
         <v>4.05</v>
       </c>
     </row>
@@ -9675,7 +9694,7 @@
         <v>-4.0199999999999996</v>
       </c>
       <c r="E126">
-        <f>ABS(D126)</f>
+        <f t="shared" si="3"/>
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -9693,7 +9712,7 @@
         <v>3.9</v>
       </c>
       <c r="E127">
-        <f>ABS(D127)</f>
+        <f t="shared" si="3"/>
         <v>3.9</v>
       </c>
     </row>
@@ -9711,7 +9730,7 @@
         <v>-3.64</v>
       </c>
       <c r="E128">
-        <f>ABS(D128)</f>
+        <f t="shared" si="3"/>
         <v>3.64</v>
       </c>
     </row>
@@ -9729,7 +9748,7 @@
         <v>-3.48</v>
       </c>
       <c r="E129">
-        <f>ABS(D129)</f>
+        <f t="shared" si="3"/>
         <v>3.48</v>
       </c>
     </row>
@@ -9747,7 +9766,7 @@
         <v>-3.43</v>
       </c>
       <c r="E130">
-        <f>ABS(D130)</f>
+        <f t="shared" ref="E130:E161" si="4">ABS(D130)</f>
         <v>3.43</v>
       </c>
     </row>
@@ -9765,7 +9784,7 @@
         <v>3.25</v>
       </c>
       <c r="E131">
-        <f>ABS(D131)</f>
+        <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
     </row>
@@ -9783,7 +9802,7 @@
         <v>3.09</v>
       </c>
       <c r="E132">
-        <f>ABS(D132)</f>
+        <f t="shared" si="4"/>
         <v>3.09</v>
       </c>
     </row>
@@ -9801,7 +9820,7 @@
         <v>-3.05</v>
       </c>
       <c r="E133">
-        <f>ABS(D133)</f>
+        <f t="shared" si="4"/>
         <v>3.05</v>
       </c>
     </row>
@@ -9819,7 +9838,7 @@
         <v>-2.74</v>
       </c>
       <c r="E134">
-        <f>ABS(D134)</f>
+        <f t="shared" si="4"/>
         <v>2.74</v>
       </c>
     </row>
@@ -9837,7 +9856,7 @@
         <v>2.34</v>
       </c>
       <c r="E135">
-        <f>ABS(D135)</f>
+        <f t="shared" si="4"/>
         <v>2.34</v>
       </c>
     </row>
@@ -9855,7 +9874,7 @@
         <v>-2.23</v>
       </c>
       <c r="E136">
-        <f>ABS(D136)</f>
+        <f t="shared" si="4"/>
         <v>2.23</v>
       </c>
     </row>
@@ -9873,7 +9892,7 @@
         <v>2.17</v>
       </c>
       <c r="E137">
-        <f>ABS(D137)</f>
+        <f t="shared" si="4"/>
         <v>2.17</v>
       </c>
     </row>
@@ -9891,7 +9910,7 @@
         <v>-9.27</v>
       </c>
       <c r="E138">
-        <f>ABS(D138)</f>
+        <f t="shared" si="4"/>
         <v>9.27</v>
       </c>
     </row>
@@ -9909,7 +9928,7 @@
         <v>-9.27</v>
       </c>
       <c r="E139">
-        <f>ABS(D139)</f>
+        <f t="shared" si="4"/>
         <v>9.27</v>
       </c>
     </row>
@@ -9927,7 +9946,7 @@
         <v>2.12</v>
       </c>
       <c r="E140">
-        <f>ABS(D140)</f>
+        <f t="shared" si="4"/>
         <v>2.12</v>
       </c>
     </row>
@@ -9945,7 +9964,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="E141">
-        <f>ABS(D141)</f>
+        <f t="shared" si="4"/>
         <v>2.0699999999999998</v>
       </c>
     </row>
@@ -9963,7 +9982,7 @@
         <v>-1.75</v>
       </c>
       <c r="E142">
-        <f>ABS(D142)</f>
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
     </row>
@@ -9981,7 +10000,7 @@
         <v>1.67</v>
       </c>
       <c r="E143">
-        <f>ABS(D143)</f>
+        <f t="shared" si="4"/>
         <v>1.67</v>
       </c>
     </row>
@@ -9999,7 +10018,7 @@
         <v>-1.64</v>
       </c>
       <c r="E144">
-        <f>ABS(D144)</f>
+        <f t="shared" si="4"/>
         <v>1.64</v>
       </c>
     </row>
@@ -10017,7 +10036,7 @@
         <v>1.57</v>
       </c>
       <c r="E145">
-        <f>ABS(D145)</f>
+        <f t="shared" si="4"/>
         <v>1.57</v>
       </c>
     </row>
@@ -10035,7 +10054,7 @@
         <v>1.48</v>
       </c>
       <c r="E146">
-        <f>ABS(D146)</f>
+        <f t="shared" si="4"/>
         <v>1.48</v>
       </c>
     </row>
@@ -10053,7 +10072,7 @@
         <v>1.4</v>
       </c>
       <c r="E147">
-        <f>ABS(D147)</f>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
@@ -10071,7 +10090,7 @@
         <v>1.37</v>
       </c>
       <c r="E148">
-        <f>ABS(D148)</f>
+        <f t="shared" si="4"/>
         <v>1.37</v>
       </c>
     </row>
@@ -10089,7 +10108,7 @@
         <v>-1.32</v>
       </c>
       <c r="E149">
-        <f>ABS(D149)</f>
+        <f t="shared" si="4"/>
         <v>1.32</v>
       </c>
     </row>
@@ -10107,7 +10126,7 @@
         <v>-1.31</v>
       </c>
       <c r="E150">
-        <f>ABS(D150)</f>
+        <f t="shared" si="4"/>
         <v>1.31</v>
       </c>
     </row>
@@ -10125,7 +10144,7 @@
         <v>-1.26</v>
       </c>
       <c r="E151">
-        <f>ABS(D151)</f>
+        <f t="shared" si="4"/>
         <v>1.26</v>
       </c>
     </row>
@@ -10143,7 +10162,7 @@
         <v>-1.1200000000000001</v>
       </c>
       <c r="E152">
-        <f>ABS(D152)</f>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
@@ -10161,7 +10180,7 @@
         <v>0.97</v>
       </c>
       <c r="E153">
-        <f>ABS(D153)</f>
+        <f t="shared" si="4"/>
         <v>0.97</v>
       </c>
     </row>
@@ -10179,7 +10198,7 @@
         <v>-0.81</v>
       </c>
       <c r="E154">
-        <f>ABS(D154)</f>
+        <f t="shared" si="4"/>
         <v>0.81</v>
       </c>
     </row>
@@ -10197,7 +10216,7 @@
         <v>0.71</v>
       </c>
       <c r="E155">
-        <f>ABS(D155)</f>
+        <f t="shared" si="4"/>
         <v>0.71</v>
       </c>
     </row>
@@ -10215,7 +10234,7 @@
         <v>0.54</v>
       </c>
       <c r="E156">
-        <f>ABS(D156)</f>
+        <f t="shared" si="4"/>
         <v>0.54</v>
       </c>
     </row>
@@ -10233,7 +10252,7 @@
         <v>0.51</v>
       </c>
       <c r="E157">
-        <f>ABS(D157)</f>
+        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
     </row>
@@ -10251,7 +10270,7 @@
         <v>0.46</v>
       </c>
       <c r="E158">
-        <f>ABS(D158)</f>
+        <f t="shared" si="4"/>
         <v>0.46</v>
       </c>
     </row>
@@ -10269,7 +10288,7 @@
         <v>0.44</v>
       </c>
       <c r="E159">
-        <f>ABS(D159)</f>
+        <f t="shared" si="4"/>
         <v>0.44</v>
       </c>
     </row>
@@ -10287,7 +10306,7 @@
         <v>0.41</v>
       </c>
       <c r="E160">
-        <f>ABS(D160)</f>
+        <f t="shared" si="4"/>
         <v>0.41</v>
       </c>
     </row>
@@ -10305,7 +10324,7 @@
         <v>0.19</v>
       </c>
       <c r="E161">
-        <f>ABS(D161)</f>
+        <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
     </row>
@@ -10323,7 +10342,7 @@
         <v>0.16</v>
       </c>
       <c r="E162">
-        <f>ABS(D162)</f>
+        <f t="shared" ref="E162:E193" si="5">ABS(D162)</f>
         <v>0.16</v>
       </c>
     </row>
@@ -10341,7 +10360,7 @@
         <v>-0.1</v>
       </c>
       <c r="E163">
-        <f>ABS(D163)</f>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
@@ -10509,7 +10528,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10535,18 +10554,18 @@
       <c r="E1" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="L1" s="18" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="L1" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -10562,7 +10581,7 @@
         <v>1023.8</v>
       </c>
       <c r="E2">
-        <f>ABS(D2)</f>
+        <f t="shared" ref="E2:E25" si="0">ABS(D2)</f>
         <v>1023.8</v>
       </c>
     </row>
@@ -10580,7 +10599,7 @@
         <v>166.43</v>
       </c>
       <c r="E3">
-        <f>ABS(D3)</f>
+        <f t="shared" si="0"/>
         <v>166.43</v>
       </c>
     </row>
@@ -10598,7 +10617,7 @@
         <v>108.34</v>
       </c>
       <c r="E4">
-        <f>ABS(D4)</f>
+        <f t="shared" si="0"/>
         <v>108.34</v>
       </c>
     </row>
@@ -10616,7 +10635,7 @@
         <v>96.41</v>
       </c>
       <c r="E5">
-        <f>ABS(D5)</f>
+        <f t="shared" si="0"/>
         <v>96.41</v>
       </c>
     </row>
@@ -10634,7 +10653,7 @@
         <v>87.86</v>
       </c>
       <c r="E6">
-        <f>ABS(D6)</f>
+        <f t="shared" si="0"/>
         <v>87.86</v>
       </c>
     </row>
@@ -10652,7 +10671,7 @@
         <v>82.79</v>
       </c>
       <c r="E7">
-        <f>ABS(D7)</f>
+        <f t="shared" si="0"/>
         <v>82.79</v>
       </c>
     </row>
@@ -10670,7 +10689,7 @@
         <v>70.12</v>
       </c>
       <c r="E8">
-        <f>ABS(D8)</f>
+        <f t="shared" si="0"/>
         <v>70.12</v>
       </c>
     </row>
@@ -10688,7 +10707,7 @@
         <v>69.52</v>
       </c>
       <c r="E9">
-        <f>ABS(D9)</f>
+        <f t="shared" si="0"/>
         <v>69.52</v>
       </c>
     </row>
@@ -10706,7 +10725,7 @@
         <v>63.85</v>
       </c>
       <c r="E10">
-        <f>ABS(D10)</f>
+        <f t="shared" si="0"/>
         <v>63.85</v>
       </c>
     </row>
@@ -10724,7 +10743,7 @@
         <v>63.37</v>
       </c>
       <c r="E11">
-        <f>ABS(D11)</f>
+        <f t="shared" si="0"/>
         <v>63.37</v>
       </c>
     </row>
@@ -10742,7 +10761,7 @@
         <v>-51.44</v>
       </c>
       <c r="E12">
-        <f>ABS(D12)</f>
+        <f t="shared" si="0"/>
         <v>51.44</v>
       </c>
     </row>
@@ -10760,7 +10779,7 @@
         <v>49.15</v>
       </c>
       <c r="E13">
-        <f>ABS(D13)</f>
+        <f t="shared" si="0"/>
         <v>49.15</v>
       </c>
     </row>
@@ -10778,7 +10797,7 @@
         <v>49.06</v>
       </c>
       <c r="E14">
-        <f>ABS(D14)</f>
+        <f t="shared" si="0"/>
         <v>49.06</v>
       </c>
     </row>
@@ -10796,7 +10815,7 @@
         <v>44.08</v>
       </c>
       <c r="E15">
-        <f>ABS(D15)</f>
+        <f t="shared" si="0"/>
         <v>44.08</v>
       </c>
     </row>
@@ -10814,7 +10833,7 @@
         <v>43.57</v>
       </c>
       <c r="E16">
-        <f>ABS(D16)</f>
+        <f t="shared" si="0"/>
         <v>43.57</v>
       </c>
     </row>
@@ -10832,7 +10851,7 @@
         <v>42.73</v>
       </c>
       <c r="E17">
-        <f>ABS(D17)</f>
+        <f t="shared" si="0"/>
         <v>42.73</v>
       </c>
     </row>
@@ -10850,7 +10869,7 @@
         <v>-42.47</v>
       </c>
       <c r="E18">
-        <f>ABS(D18)</f>
+        <f t="shared" si="0"/>
         <v>42.47</v>
       </c>
     </row>
@@ -10868,7 +10887,7 @@
         <v>40.54</v>
       </c>
       <c r="E19">
-        <f>ABS(D19)</f>
+        <f t="shared" si="0"/>
         <v>40.54</v>
       </c>
     </row>
@@ -10886,7 +10905,7 @@
         <v>38.18</v>
       </c>
       <c r="E20">
-        <f>ABS(D20)</f>
+        <f t="shared" si="0"/>
         <v>38.18</v>
       </c>
     </row>
@@ -10904,7 +10923,7 @@
         <v>37.119999999999997</v>
       </c>
       <c r="E21">
-        <f>ABS(D21)</f>
+        <f t="shared" si="0"/>
         <v>37.119999999999997</v>
       </c>
     </row>
@@ -10922,7 +10941,7 @@
         <v>36.61</v>
       </c>
       <c r="E22">
-        <f>ABS(D22)</f>
+        <f t="shared" si="0"/>
         <v>36.61</v>
       </c>
     </row>
@@ -10940,7 +10959,7 @@
         <v>36.15</v>
       </c>
       <c r="E23">
-        <f>ABS(D23)</f>
+        <f t="shared" si="0"/>
         <v>36.15</v>
       </c>
     </row>
@@ -10958,7 +10977,7 @@
         <v>34.5</v>
       </c>
       <c r="E24">
-        <f>ABS(D24)</f>
+        <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
     </row>
@@ -10976,7 +10995,7 @@
         <v>33.93</v>
       </c>
       <c r="E25">
-        <f>ABS(D25)</f>
+        <f t="shared" si="0"/>
         <v>33.93</v>
       </c>
     </row>
@@ -11040,7 +11059,7 @@
         <v>30.95</v>
       </c>
       <c r="E29">
-        <f>ABS(D29)</f>
+        <f t="shared" ref="E29:E37" si="1">ABS(D29)</f>
         <v>30.95</v>
       </c>
     </row>
@@ -11058,7 +11077,7 @@
         <v>29.32</v>
       </c>
       <c r="E30">
-        <f>ABS(D30)</f>
+        <f t="shared" si="1"/>
         <v>29.32</v>
       </c>
     </row>
@@ -11076,7 +11095,7 @@
         <v>29.04</v>
       </c>
       <c r="E31">
-        <f>ABS(D31)</f>
+        <f t="shared" si="1"/>
         <v>29.04</v>
       </c>
     </row>
@@ -11094,7 +11113,7 @@
         <v>28.58</v>
       </c>
       <c r="E32">
-        <f>ABS(D32)</f>
+        <f t="shared" si="1"/>
         <v>28.58</v>
       </c>
     </row>
@@ -11112,7 +11131,7 @@
         <v>28.41</v>
       </c>
       <c r="E33">
-        <f>ABS(D33)</f>
+        <f t="shared" si="1"/>
         <v>28.41</v>
       </c>
     </row>
@@ -11130,7 +11149,7 @@
         <v>-27.73</v>
       </c>
       <c r="E34">
-        <f>ABS(D34)</f>
+        <f t="shared" si="1"/>
         <v>27.73</v>
       </c>
     </row>
@@ -11148,7 +11167,7 @@
         <v>26.15</v>
       </c>
       <c r="E35">
-        <f>ABS(D35)</f>
+        <f t="shared" si="1"/>
         <v>26.15</v>
       </c>
     </row>
@@ -11166,7 +11185,7 @@
         <v>26.08</v>
       </c>
       <c r="E36">
-        <f>ABS(D36)</f>
+        <f t="shared" si="1"/>
         <v>26.08</v>
       </c>
     </row>
@@ -11184,7 +11203,7 @@
         <v>-25.64</v>
       </c>
       <c r="E37">
-        <f>ABS(D37)</f>
+        <f t="shared" si="1"/>
         <v>25.64</v>
       </c>
     </row>
@@ -11376,7 +11395,7 @@
         <v>23.04</v>
       </c>
       <c r="E49">
-        <f>ABS(D49)</f>
+        <f t="shared" ref="E49:E60" si="2">ABS(D49)</f>
         <v>23.04</v>
       </c>
     </row>
@@ -11394,7 +11413,7 @@
         <v>22.72</v>
       </c>
       <c r="E50">
-        <f>ABS(D50)</f>
+        <f t="shared" si="2"/>
         <v>22.72</v>
       </c>
     </row>
@@ -11412,7 +11431,7 @@
         <v>-21.89</v>
       </c>
       <c r="E51">
-        <f>ABS(D51)</f>
+        <f t="shared" si="2"/>
         <v>21.89</v>
       </c>
     </row>
@@ -11430,7 +11449,7 @@
         <v>-21.59</v>
       </c>
       <c r="E52">
-        <f>ABS(D52)</f>
+        <f t="shared" si="2"/>
         <v>21.59</v>
       </c>
     </row>
@@ -11448,7 +11467,7 @@
         <v>21.29</v>
       </c>
       <c r="E53">
-        <f>ABS(D53)</f>
+        <f t="shared" si="2"/>
         <v>21.29</v>
       </c>
     </row>
@@ -11466,7 +11485,7 @@
         <v>20.23</v>
       </c>
       <c r="E54">
-        <f>ABS(D54)</f>
+        <f t="shared" si="2"/>
         <v>20.23</v>
       </c>
     </row>
@@ -11484,7 +11503,7 @@
         <v>20.2</v>
       </c>
       <c r="E55">
-        <f>ABS(D55)</f>
+        <f t="shared" si="2"/>
         <v>20.2</v>
       </c>
     </row>
@@ -11502,7 +11521,7 @@
         <v>20.13</v>
       </c>
       <c r="E56">
-        <f>ABS(D56)</f>
+        <f t="shared" si="2"/>
         <v>20.13</v>
       </c>
     </row>
@@ -11520,7 +11539,7 @@
         <v>19.920000000000002</v>
       </c>
       <c r="E57">
-        <f>ABS(D57)</f>
+        <f t="shared" si="2"/>
         <v>19.920000000000002</v>
       </c>
     </row>
@@ -11538,7 +11557,7 @@
         <v>-18.420000000000002</v>
       </c>
       <c r="E58">
-        <f>ABS(D58)</f>
+        <f t="shared" si="2"/>
         <v>18.420000000000002</v>
       </c>
     </row>
@@ -11556,7 +11575,7 @@
         <v>18.27</v>
       </c>
       <c r="E59">
-        <f>ABS(D59)</f>
+        <f t="shared" si="2"/>
         <v>18.27</v>
       </c>
     </row>
@@ -11574,7 +11593,7 @@
         <v>18.2</v>
       </c>
       <c r="E60">
-        <f>ABS(D60)</f>
+        <f t="shared" si="2"/>
         <v>18.2</v>
       </c>
     </row>
@@ -11606,7 +11625,7 @@
         <v>18.13</v>
       </c>
       <c r="E62">
-        <f>ABS(D62)</f>
+        <f t="shared" ref="E62:E81" si="3">ABS(D62)</f>
         <v>18.13</v>
       </c>
     </row>
@@ -11624,7 +11643,7 @@
         <v>17.86</v>
       </c>
       <c r="E63">
-        <f>ABS(D63)</f>
+        <f t="shared" si="3"/>
         <v>17.86</v>
       </c>
     </row>
@@ -11642,7 +11661,7 @@
         <v>-16.940000000000001</v>
       </c>
       <c r="E64">
-        <f>ABS(D64)</f>
+        <f t="shared" si="3"/>
         <v>16.940000000000001</v>
       </c>
     </row>
@@ -11660,7 +11679,7 @@
         <v>16.91</v>
       </c>
       <c r="E65">
-        <f>ABS(D65)</f>
+        <f t="shared" si="3"/>
         <v>16.91</v>
       </c>
     </row>
@@ -11678,7 +11697,7 @@
         <v>16.5</v>
       </c>
       <c r="E66">
-        <f>ABS(D66)</f>
+        <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
     </row>
@@ -11696,7 +11715,7 @@
         <v>16.440000000000001</v>
       </c>
       <c r="E67">
-        <f>ABS(D67)</f>
+        <f t="shared" si="3"/>
         <v>16.440000000000001</v>
       </c>
     </row>
@@ -11714,7 +11733,7 @@
         <v>16.03</v>
       </c>
       <c r="E68">
-        <f>ABS(D68)</f>
+        <f t="shared" si="3"/>
         <v>16.03</v>
       </c>
     </row>
@@ -11732,7 +11751,7 @@
         <v>14.97</v>
       </c>
       <c r="E69">
-        <f>ABS(D69)</f>
+        <f t="shared" si="3"/>
         <v>14.97</v>
       </c>
     </row>
@@ -11750,7 +11769,7 @@
         <v>-14.43</v>
       </c>
       <c r="E70">
-        <f>ABS(D70)</f>
+        <f t="shared" si="3"/>
         <v>14.43</v>
       </c>
     </row>
@@ -11768,7 +11787,7 @@
         <v>14.29</v>
       </c>
       <c r="E71">
-        <f>ABS(D71)</f>
+        <f t="shared" si="3"/>
         <v>14.29</v>
       </c>
     </row>
@@ -11786,7 +11805,7 @@
         <v>13.8</v>
       </c>
       <c r="E72">
-        <f>ABS(D72)</f>
+        <f t="shared" si="3"/>
         <v>13.8</v>
       </c>
     </row>
@@ -11804,7 +11823,7 @@
         <v>13.36</v>
       </c>
       <c r="E73">
-        <f>ABS(D73)</f>
+        <f t="shared" si="3"/>
         <v>13.36</v>
       </c>
     </row>
@@ -11822,7 +11841,7 @@
         <v>12.99</v>
       </c>
       <c r="E74">
-        <f>ABS(D74)</f>
+        <f t="shared" si="3"/>
         <v>12.99</v>
       </c>
     </row>
@@ -11840,7 +11859,7 @@
         <v>12.96</v>
       </c>
       <c r="E75">
-        <f>ABS(D75)</f>
+        <f t="shared" si="3"/>
         <v>12.96</v>
       </c>
     </row>
@@ -11858,7 +11877,7 @@
         <v>12.81</v>
       </c>
       <c r="E76">
-        <f>ABS(D76)</f>
+        <f t="shared" si="3"/>
         <v>12.81</v>
       </c>
     </row>
@@ -11876,7 +11895,7 @@
         <v>12.48</v>
       </c>
       <c r="E77">
-        <f>ABS(D77)</f>
+        <f t="shared" si="3"/>
         <v>12.48</v>
       </c>
     </row>
@@ -11894,7 +11913,7 @@
         <v>12.12</v>
       </c>
       <c r="E78">
-        <f>ABS(D78)</f>
+        <f t="shared" si="3"/>
         <v>12.12</v>
       </c>
     </row>
@@ -11912,7 +11931,7 @@
         <v>11.65</v>
       </c>
       <c r="E79">
-        <f>ABS(D79)</f>
+        <f t="shared" si="3"/>
         <v>11.65</v>
       </c>
     </row>
@@ -11930,7 +11949,7 @@
         <v>-11.35</v>
       </c>
       <c r="E80">
-        <f>ABS(D80)</f>
+        <f t="shared" si="3"/>
         <v>11.35</v>
       </c>
     </row>
@@ -11948,7 +11967,7 @@
         <v>11.18</v>
       </c>
       <c r="E81">
-        <f>ABS(D81)</f>
+        <f t="shared" si="3"/>
         <v>11.18</v>
       </c>
     </row>
@@ -12112,7 +12131,7 @@
         <v>10.24</v>
       </c>
       <c r="E91">
-        <f>ABS(D91)</f>
+        <f t="shared" ref="E91:E100" si="4">ABS(D91)</f>
         <v>10.24</v>
       </c>
     </row>
@@ -12130,7 +12149,7 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="E92">
-        <f>ABS(D92)</f>
+        <f t="shared" si="4"/>
         <v>9.9700000000000006</v>
       </c>
     </row>
@@ -12148,7 +12167,7 @@
         <v>-9.77</v>
       </c>
       <c r="E93">
-        <f>ABS(D93)</f>
+        <f t="shared" si="4"/>
         <v>9.77</v>
       </c>
     </row>
@@ -12166,7 +12185,7 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E94">
-        <f>ABS(D94)</f>
+        <f t="shared" si="4"/>
         <v>9.2100000000000009</v>
       </c>
     </row>
@@ -12184,7 +12203,7 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="E95">
-        <f>ABS(D95)</f>
+        <f t="shared" si="4"/>
         <v>8.9499999999999993</v>
       </c>
     </row>
@@ -12202,7 +12221,7 @@
         <v>8.69</v>
       </c>
       <c r="E96">
-        <f>ABS(D96)</f>
+        <f t="shared" si="4"/>
         <v>8.69</v>
       </c>
     </row>
@@ -12220,7 +12239,7 @@
         <v>-8.3800000000000008</v>
       </c>
       <c r="E97">
-        <f>ABS(D97)</f>
+        <f t="shared" si="4"/>
         <v>8.3800000000000008</v>
       </c>
     </row>
@@ -12238,7 +12257,7 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="E98">
-        <f>ABS(D98)</f>
+        <f t="shared" si="4"/>
         <v>8.2100000000000009</v>
       </c>
     </row>
@@ -12256,7 +12275,7 @@
         <v>8.14</v>
       </c>
       <c r="E99">
-        <f>ABS(D99)</f>
+        <f t="shared" si="4"/>
         <v>8.14</v>
       </c>
     </row>
@@ -12274,7 +12293,7 @@
         <v>8.1</v>
       </c>
       <c r="E100">
-        <f>ABS(D100)</f>
+        <f t="shared" si="4"/>
         <v>8.1</v>
       </c>
     </row>
@@ -12334,7 +12353,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E104">
-        <f>ABS(D104)</f>
+        <f t="shared" ref="E104:E112" si="5">ABS(D104)</f>
         <v>8.0500000000000007</v>
       </c>
     </row>
@@ -12352,7 +12371,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="E105">
-        <f>ABS(D105)</f>
+        <f t="shared" si="5"/>
         <v>8.0399999999999991</v>
       </c>
     </row>
@@ -12370,7 +12389,7 @@
         <v>-8.01</v>
       </c>
       <c r="E106">
-        <f>ABS(D106)</f>
+        <f t="shared" si="5"/>
         <v>8.01</v>
       </c>
     </row>
@@ -12388,7 +12407,7 @@
         <v>7.98</v>
       </c>
       <c r="E107">
-        <f>ABS(D107)</f>
+        <f t="shared" si="5"/>
         <v>7.98</v>
       </c>
     </row>
@@ -12406,7 +12425,7 @@
         <v>7.9</v>
       </c>
       <c r="E108">
-        <f>ABS(D108)</f>
+        <f t="shared" si="5"/>
         <v>7.9</v>
       </c>
     </row>
@@ -12424,7 +12443,7 @@
         <v>7.69</v>
       </c>
       <c r="E109">
-        <f>ABS(D109)</f>
+        <f t="shared" si="5"/>
         <v>7.69</v>
       </c>
     </row>
@@ -12442,7 +12461,7 @@
         <v>7.56</v>
       </c>
       <c r="E110">
-        <f>ABS(D110)</f>
+        <f t="shared" si="5"/>
         <v>7.56</v>
       </c>
     </row>
@@ -12460,7 +12479,7 @@
         <v>7.29</v>
       </c>
       <c r="E111">
-        <f>ABS(D111)</f>
+        <f t="shared" si="5"/>
         <v>7.29</v>
       </c>
     </row>
@@ -12478,7 +12497,7 @@
         <v>6.9</v>
       </c>
       <c r="E112">
-        <f>ABS(D112)</f>
+        <f t="shared" si="5"/>
         <v>6.9</v>
       </c>
     </row>
@@ -12560,7 +12579,7 @@
         <v>6.59</v>
       </c>
       <c r="E117">
-        <f>ABS(D117)</f>
+        <f t="shared" ref="E117:E123" si="6">ABS(D117)</f>
         <v>6.59</v>
       </c>
     </row>
@@ -12578,7 +12597,7 @@
         <v>6.34</v>
       </c>
       <c r="E118">
-        <f>ABS(D118)</f>
+        <f t="shared" si="6"/>
         <v>6.34</v>
       </c>
     </row>
@@ -12596,7 +12615,7 @@
         <v>-6.26</v>
       </c>
       <c r="E119">
-        <f>ABS(D119)</f>
+        <f t="shared" si="6"/>
         <v>6.26</v>
       </c>
     </row>
@@ -12614,7 +12633,7 @@
         <v>-5.93</v>
       </c>
       <c r="E120">
-        <f>ABS(D120)</f>
+        <f t="shared" si="6"/>
         <v>5.93</v>
       </c>
     </row>
@@ -12632,7 +12651,7 @@
         <v>-5.38</v>
       </c>
       <c r="E121">
-        <f>ABS(D121)</f>
+        <f t="shared" si="6"/>
         <v>5.38</v>
       </c>
     </row>
@@ -12650,7 +12669,7 @@
         <v>5.29</v>
       </c>
       <c r="E122">
-        <f>ABS(D122)</f>
+        <f t="shared" si="6"/>
         <v>5.29</v>
       </c>
     </row>
@@ -12668,7 +12687,7 @@
         <v>5.28</v>
       </c>
       <c r="E123">
-        <f>ABS(D123)</f>
+        <f t="shared" si="6"/>
         <v>5.28</v>
       </c>
     </row>
@@ -12700,7 +12719,7 @@
         <v>5.27</v>
       </c>
       <c r="E125">
-        <f>ABS(D125)</f>
+        <f t="shared" ref="E125:E137" si="7">ABS(D125)</f>
         <v>5.27</v>
       </c>
     </row>
@@ -12718,7 +12737,7 @@
         <v>-4.99</v>
       </c>
       <c r="E126">
-        <f>ABS(D126)</f>
+        <f t="shared" si="7"/>
         <v>4.99</v>
       </c>
     </row>
@@ -12736,7 +12755,7 @@
         <v>-4.95</v>
       </c>
       <c r="E127">
-        <f>ABS(D127)</f>
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
     </row>
@@ -12754,7 +12773,7 @@
         <v>-4.95</v>
       </c>
       <c r="E128">
-        <f>ABS(D128)</f>
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
     </row>
@@ -12772,7 +12791,7 @@
         <v>-4.88</v>
       </c>
       <c r="E129">
-        <f>ABS(D129)</f>
+        <f t="shared" si="7"/>
         <v>4.88</v>
       </c>
     </row>
@@ -12790,7 +12809,7 @@
         <v>4.38</v>
       </c>
       <c r="E130">
-        <f>ABS(D130)</f>
+        <f t="shared" si="7"/>
         <v>4.38</v>
       </c>
     </row>
@@ -12808,7 +12827,7 @@
         <v>4.3</v>
       </c>
       <c r="E131">
-        <f>ABS(D131)</f>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
     </row>
@@ -12826,7 +12845,7 @@
         <v>-4.2</v>
       </c>
       <c r="E132">
-        <f>ABS(D132)</f>
+        <f t="shared" si="7"/>
         <v>4.2</v>
       </c>
     </row>
@@ -12844,7 +12863,7 @@
         <v>-3.97</v>
       </c>
       <c r="E133">
-        <f>ABS(D133)</f>
+        <f t="shared" si="7"/>
         <v>3.97</v>
       </c>
     </row>
@@ -12862,7 +12881,7 @@
         <v>-3.85</v>
       </c>
       <c r="E134">
-        <f>ABS(D134)</f>
+        <f t="shared" si="7"/>
         <v>3.85</v>
       </c>
     </row>
@@ -12880,7 +12899,7 @@
         <v>3.78</v>
       </c>
       <c r="E135">
-        <f>ABS(D135)</f>
+        <f t="shared" si="7"/>
         <v>3.78</v>
       </c>
     </row>
@@ -12898,7 +12917,7 @@
         <v>3.68</v>
       </c>
       <c r="E136">
-        <f>ABS(D136)</f>
+        <f t="shared" si="7"/>
         <v>3.68</v>
       </c>
     </row>
@@ -12916,7 +12935,7 @@
         <v>-3.64</v>
       </c>
       <c r="E137">
-        <f>ABS(D137)</f>
+        <f t="shared" si="7"/>
         <v>3.64</v>
       </c>
     </row>
@@ -12962,7 +12981,7 @@
         <v>-3.63</v>
       </c>
       <c r="E140">
-        <f>ABS(D140)</f>
+        <f t="shared" ref="E140:E163" si="8">ABS(D140)</f>
         <v>3.63</v>
       </c>
     </row>
@@ -12980,7 +12999,7 @@
         <v>-3.02</v>
       </c>
       <c r="E141">
-        <f>ABS(D141)</f>
+        <f t="shared" si="8"/>
         <v>3.02</v>
       </c>
     </row>
@@ -12998,7 +13017,7 @@
         <v>2.98</v>
       </c>
       <c r="E142">
-        <f>ABS(D142)</f>
+        <f t="shared" si="8"/>
         <v>2.98</v>
       </c>
     </row>
@@ -13016,7 +13035,7 @@
         <v>2.97</v>
       </c>
       <c r="E143">
-        <f>ABS(D143)</f>
+        <f t="shared" si="8"/>
         <v>2.97</v>
       </c>
     </row>
@@ -13034,7 +13053,7 @@
         <v>2.76</v>
       </c>
       <c r="E144">
-        <f>ABS(D144)</f>
+        <f t="shared" si="8"/>
         <v>2.76</v>
       </c>
     </row>
@@ -13052,7 +13071,7 @@
         <v>2.52</v>
       </c>
       <c r="E145">
-        <f>ABS(D145)</f>
+        <f t="shared" si="8"/>
         <v>2.52</v>
       </c>
     </row>
@@ -13070,7 +13089,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="E146">
-        <f>ABS(D146)</f>
+        <f t="shared" si="8"/>
         <v>2.4900000000000002</v>
       </c>
     </row>
@@ -13088,7 +13107,7 @@
         <v>2.36</v>
       </c>
       <c r="E147">
-        <f>ABS(D147)</f>
+        <f t="shared" si="8"/>
         <v>2.36</v>
       </c>
     </row>
@@ -13106,7 +13125,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="E148">
-        <f>ABS(D148)</f>
+        <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -13124,7 +13143,7 @@
         <v>-2.29</v>
       </c>
       <c r="E149">
-        <f>ABS(D149)</f>
+        <f t="shared" si="8"/>
         <v>2.29</v>
       </c>
     </row>
@@ -13142,7 +13161,7 @@
         <v>-2.23</v>
       </c>
       <c r="E150">
-        <f>ABS(D150)</f>
+        <f t="shared" si="8"/>
         <v>2.23</v>
       </c>
     </row>
@@ -13160,7 +13179,7 @@
         <v>-2.04</v>
       </c>
       <c r="E151">
-        <f>ABS(D151)</f>
+        <f t="shared" si="8"/>
         <v>2.04</v>
       </c>
     </row>
@@ -13178,7 +13197,7 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <f>ABS(D152)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -13196,7 +13215,7 @@
         <v>-1.97</v>
       </c>
       <c r="E153">
-        <f>ABS(D153)</f>
+        <f t="shared" si="8"/>
         <v>1.97</v>
       </c>
     </row>
@@ -13214,7 +13233,7 @@
         <v>-1.92</v>
       </c>
       <c r="E154">
-        <f>ABS(D154)</f>
+        <f t="shared" si="8"/>
         <v>1.92</v>
       </c>
     </row>
@@ -13232,7 +13251,7 @@
         <v>1.88</v>
       </c>
       <c r="E155">
-        <f>ABS(D155)</f>
+        <f t="shared" si="8"/>
         <v>1.88</v>
       </c>
     </row>
@@ -13250,7 +13269,7 @@
         <v>-1.39</v>
       </c>
       <c r="E156">
-        <f>ABS(D156)</f>
+        <f t="shared" si="8"/>
         <v>1.39</v>
       </c>
     </row>
@@ -13268,7 +13287,7 @@
         <v>-1.38</v>
       </c>
       <c r="E157">
-        <f>ABS(D157)</f>
+        <f t="shared" si="8"/>
         <v>1.38</v>
       </c>
     </row>
@@ -13286,7 +13305,7 @@
         <v>1.38</v>
       </c>
       <c r="E158">
-        <f>ABS(D158)</f>
+        <f t="shared" si="8"/>
         <v>1.38</v>
       </c>
     </row>
@@ -13304,7 +13323,7 @@
         <v>-1.23</v>
       </c>
       <c r="E159">
-        <f>ABS(D159)</f>
+        <f t="shared" si="8"/>
         <v>1.23</v>
       </c>
     </row>
@@ -13322,7 +13341,7 @@
         <v>0.69</v>
       </c>
       <c r="E160">
-        <f>ABS(D160)</f>
+        <f t="shared" si="8"/>
         <v>0.69</v>
       </c>
     </row>
@@ -13340,7 +13359,7 @@
         <v>-0.49</v>
       </c>
       <c r="E161">
-        <f>ABS(D161)</f>
+        <f t="shared" si="8"/>
         <v>0.49</v>
       </c>
     </row>
@@ -13358,7 +13377,7 @@
         <v>0.45</v>
       </c>
       <c r="E162">
-        <f>ABS(D162)</f>
+        <f t="shared" si="8"/>
         <v>0.45</v>
       </c>
     </row>
@@ -13376,7 +13395,7 @@
         <v>-0.42</v>
       </c>
       <c r="E163">
-        <f>ABS(D163)</f>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
     </row>
@@ -13538,4 +13557,1239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="F1" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="21">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="21">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="21">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="21">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="21">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="21">
+        <v>4</v>
+      </c>
+      <c r="G8" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="21">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4</v>
+      </c>
+      <c r="G9" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="21">
+        <v>9</v>
+      </c>
+      <c r="C10" s="21">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4</v>
+      </c>
+      <c r="G10" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="21">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5</v>
+      </c>
+      <c r="G11" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="21">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="21">
+        <v>5</v>
+      </c>
+      <c r="G12" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="21">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="21">
+        <v>5</v>
+      </c>
+      <c r="G13" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="21">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="21">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21">
+        <v>13</v>
+      </c>
+      <c r="C15" s="21">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="21">
+        <v>5</v>
+      </c>
+      <c r="G15" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="21">
+        <v>13</v>
+      </c>
+      <c r="C16" s="21">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="21">
+        <v>5</v>
+      </c>
+      <c r="G16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="21">
+        <v>16</v>
+      </c>
+      <c r="C17" s="21">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="21">
+        <v>6</v>
+      </c>
+      <c r="G17" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="21">
+        <v>16</v>
+      </c>
+      <c r="C18" s="21">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="21">
+        <v>6</v>
+      </c>
+      <c r="G18" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="21">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="21">
+        <v>6</v>
+      </c>
+      <c r="G19" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="21">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="21">
+        <v>6</v>
+      </c>
+      <c r="G20" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="21">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="21">
+        <v>6</v>
+      </c>
+      <c r="G22" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="21">
+        <v>18</v>
+      </c>
+      <c r="C23" s="21">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="21">
+        <v>7</v>
+      </c>
+      <c r="G23" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="21">
+        <v>18</v>
+      </c>
+      <c r="C24" s="21">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="21">
+        <v>7</v>
+      </c>
+      <c r="G24" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="21">
+        <v>19</v>
+      </c>
+      <c r="C25" s="21">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="21">
+        <v>7</v>
+      </c>
+      <c r="G25" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="21">
+        <v>20</v>
+      </c>
+      <c r="C26" s="21">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="21">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>481</v>
+      </c>
+      <c r="F27" s="21">
+        <v>7</v>
+      </c>
+      <c r="G27" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="21">
+        <v>21</v>
+      </c>
+      <c r="C28" s="21">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="21">
+        <v>7</v>
+      </c>
+      <c r="G28" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="21">
+        <v>21</v>
+      </c>
+      <c r="C29" s="21">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="21">
+        <v>7</v>
+      </c>
+      <c r="G29" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" s="21">
+        <v>22</v>
+      </c>
+      <c r="C30" s="21">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="21">
+        <v>7</v>
+      </c>
+      <c r="G30" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="21">
+        <v>23</v>
+      </c>
+      <c r="C31" s="21">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="21">
+        <v>7</v>
+      </c>
+      <c r="G31" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="21">
+        <v>25</v>
+      </c>
+      <c r="C32" s="21">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="21">
+        <v>7</v>
+      </c>
+      <c r="G32" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="21">
+        <v>26</v>
+      </c>
+      <c r="C33" s="21">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="21">
+        <v>7</v>
+      </c>
+      <c r="G33" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="21">
+        <v>26</v>
+      </c>
+      <c r="C34" s="21">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>472</v>
+      </c>
+      <c r="F34" s="21">
+        <v>7</v>
+      </c>
+      <c r="G34" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="21">
+        <v>26</v>
+      </c>
+      <c r="C35" s="21">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="21">
+        <v>8</v>
+      </c>
+      <c r="G35" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="21">
+        <v>28</v>
+      </c>
+      <c r="C36" s="21">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="21">
+        <v>8</v>
+      </c>
+      <c r="G36" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="21">
+        <v>29</v>
+      </c>
+      <c r="C37" s="21">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="21">
+        <v>8</v>
+      </c>
+      <c r="G37" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="21">
+        <v>31</v>
+      </c>
+      <c r="C38" s="21">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="21">
+        <v>8</v>
+      </c>
+      <c r="G38" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="21">
+        <v>31</v>
+      </c>
+      <c r="C39" s="21">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="21">
+        <v>8</v>
+      </c>
+      <c r="G39" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="21">
+        <v>31</v>
+      </c>
+      <c r="C40" s="21">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="21">
+        <v>8</v>
+      </c>
+      <c r="G40" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="21">
+        <v>31</v>
+      </c>
+      <c r="C41" s="21">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="21">
+        <v>8</v>
+      </c>
+      <c r="G41" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="21">
+        <v>31</v>
+      </c>
+      <c r="C42" s="21">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="21">
+        <v>8</v>
+      </c>
+      <c r="G42" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="21">
+        <v>31</v>
+      </c>
+      <c r="C43" s="21">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>443</v>
+      </c>
+      <c r="F43" s="21">
+        <v>8</v>
+      </c>
+      <c r="G43" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44" s="21">
+        <v>32</v>
+      </c>
+      <c r="C44" s="21">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="21">
+        <v>8</v>
+      </c>
+      <c r="G44" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>443</v>
+      </c>
+      <c r="B45" s="21">
+        <v>33</v>
+      </c>
+      <c r="C45" s="21">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="21">
+        <v>8</v>
+      </c>
+      <c r="G45" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="21">
+        <v>33</v>
+      </c>
+      <c r="C46" s="21">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="21">
+        <v>9</v>
+      </c>
+      <c r="G46" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="21">
+        <v>34</v>
+      </c>
+      <c r="C47" s="21">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="21">
+        <v>9</v>
+      </c>
+      <c r="G47" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="21">
+        <v>34</v>
+      </c>
+      <c r="C48" s="21">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="21">
+        <v>9</v>
+      </c>
+      <c r="G48" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>446</v>
+      </c>
+      <c r="B49" s="21">
+        <v>35</v>
+      </c>
+      <c r="C49" s="21">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="21">
+        <v>9</v>
+      </c>
+      <c r="G49" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>481</v>
+      </c>
+      <c r="B50" s="21">
+        <v>36</v>
+      </c>
+      <c r="C50" s="21">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="21">
+        <v>9</v>
+      </c>
+      <c r="G50" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="21">
+        <v>36</v>
+      </c>
+      <c r="C51" s="21">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="21">
+        <v>9</v>
+      </c>
+      <c r="G51" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B52" s="21">
+        <v>36</v>
+      </c>
+      <c r="C52" s="21">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="21">
+        <v>9</v>
+      </c>
+      <c r="G52" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="21">
+        <v>37</v>
+      </c>
+      <c r="C53" s="21">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="21">
+        <v>9</v>
+      </c>
+      <c r="G53" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="21">
+        <v>40</v>
+      </c>
+      <c r="C54" s="21">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>214</v>
+      </c>
+      <c r="F54" s="21">
+        <v>9</v>
+      </c>
+      <c r="G54" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="21">
+        <v>41</v>
+      </c>
+      <c r="C55" s="21">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="21">
+        <v>10</v>
+      </c>
+      <c r="G55" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="21">
+        <v>42</v>
+      </c>
+      <c r="C56" s="21">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="21">
+        <v>10</v>
+      </c>
+      <c r="G56" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="21">
+        <v>42</v>
+      </c>
+      <c r="C57" s="21">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="21">
+        <v>10</v>
+      </c>
+      <c r="G57" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="21">
+        <v>42</v>
+      </c>
+      <c r="C58" s="21">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="21">
+        <v>10</v>
+      </c>
+      <c r="G58" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="21">
+        <v>42</v>
+      </c>
+      <c r="C59" s="21">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="21">
+        <v>10</v>
+      </c>
+      <c r="G59" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="21">
+        <v>43</v>
+      </c>
+      <c r="C60" s="21">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="21">
+        <v>10</v>
+      </c>
+      <c r="G60" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>407</v>
+      </c>
+      <c r="B61" s="21">
+        <v>44</v>
+      </c>
+      <c r="C61" s="21">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="21">
+        <v>10</v>
+      </c>
+      <c r="G61" s="21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project-1-Post-Processing-of-Hadoop-Results.xlsx
+++ b/Project-1-Post-Processing-of-Hadoop-Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="486">
   <si>
     <t>Year</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>Tertiary</t>
-  </si>
-  <si>
-    <t>PUT EACH SCATTER PLOT HERE AND THEN ADD IT TO THE POWERPOINT PRESENTATION!</t>
   </si>
   <si>
     <t>Albania</t>
@@ -1605,6 +1602,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1614,17 +1617,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,6 +1672,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1920,11 +1918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190841216"/>
-        <c:axId val="190843136"/>
+        <c:axId val="168137472"/>
+        <c:axId val="168139392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190841216"/>
+        <c:axId val="168137472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,12 +1949,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190843136"/>
+        <c:crossAx val="168139392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1964,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190843136"/>
+        <c:axId val="168139392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,13 +1990,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190841216"/>
+        <c:crossAx val="168137472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2015,6 +2015,1022 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Normalized</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> % Difference in the GPI for Each Pair of Years (U.S. Primary Education)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Question2!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2000.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Question2!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.3240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="168073856"/>
+        <c:axId val="168079744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="168073856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2016"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168079744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="168079744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.2000000000000002"/>
+          <c:min val="-2.2000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Difference for each Pair of Years (Normalized with the Average of Each</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Pair of Values)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168073856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Normalized</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> % Difference in the GPI for Each Pair of Years (U.S. Primary + Secondary Education)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Question2!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2000.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Question2!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="168780160"/>
+        <c:axId val="168781696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="168780160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2016"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="60000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168781696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="168781696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Difference for each Pair of Years (Normalized with the Average of Each</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Pair of Values)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168780160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Normalized</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> % Difference in the GPI for Each Pair of Years (U.S. Secondary Education)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Question2!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2000.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Question2!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="168808448"/>
+        <c:axId val="168809984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="168808448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2016"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168809984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="168809984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Difference for each Pair of Years (Normalized with the Average of Each</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Pair of Values)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168808448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Normalized</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> % Difference in the GPI for Each Pair of Years (U.S. Tertiary Education)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Question2!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2000.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Question2!$F$3:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.607</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17052800"/>
+        <c:axId val="17054336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17052800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2016"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17054336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="17054336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Difference for each Pair of Years (Normalized with the Average of Each</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Pair of Values)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="17052800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2257,11 +3273,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190770560"/>
-        <c:axId val="190772736"/>
+        <c:axId val="168754176"/>
+        <c:axId val="168166528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190770560"/>
+        <c:axId val="168754176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,12 +3304,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190772736"/>
+        <c:crossAx val="168166528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2301,7 +3318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190772736"/>
+        <c:axId val="168166528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2343,7 +3360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190770560"/>
+        <c:crossAx val="168754176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -2362,7 +3379,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2406,11 +3423,6 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2436,21 +3448,11 @@
             <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2599,11 +3601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190837888"/>
-        <c:axId val="190839808"/>
+        <c:axId val="168153472"/>
+        <c:axId val="168155392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190837888"/>
+        <c:axId val="168153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +3638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190839808"/>
+        <c:crossAx val="168155392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2644,7 +3646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190839808"/>
+        <c:axId val="168155392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2686,7 +3688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190837888"/>
+        <c:crossAx val="168153472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -2739,10 +3741,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -2771,6 +3773,137 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>487680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>480060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2805,7 +3938,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2963,7 +4096,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3000,7 +4133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3471,28 +4604,28 @@
         <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="N1" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3509,7 +4642,7 @@
         <v>East Asia &amp; Pacific</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F2" s="12">
         <f>AVERAGE(C2:C15)</f>
@@ -3535,7 +4668,7 @@
         <v>East Asia &amp; Pacific</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="12">
         <f>AVERAGE(C16:C20)</f>
@@ -3561,7 +4694,7 @@
         <v>East Asia &amp; Pacific</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="12">
         <f>AVERAGE(C21:C38)</f>
@@ -3574,7 +4707,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5">
         <v>2006</v>
@@ -3587,7 +4720,7 @@
         <v>East Asia &amp; Pacific</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="12">
         <f>AVERAGE(C40:C47)</f>
@@ -3613,7 +4746,7 @@
         <v>East Asia &amp; Pacific</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="12">
         <f>AVERAGE(C48:C51)</f>
@@ -3626,7 +4759,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7">
         <v>2015</v>
@@ -3639,7 +4772,7 @@
         <v>East Asia &amp; Pacific</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F7" s="12">
         <f>AVERAGE(C52:C81)</f>
@@ -4102,7 +5235,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B38">
         <v>2009</v>
@@ -4147,7 +5280,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41">
         <v>2013</v>
@@ -4432,7 +5565,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B60">
         <v>2012</v>
@@ -4793,10 +5926,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" t="s">
         <v>473</v>
-      </c>
-      <c r="B1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4804,15 +5937,15 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4820,36 +5953,36 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4857,23 +5990,23 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4881,23 +6014,23 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4905,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4913,23 +6046,23 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4937,7 +6070,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4945,15 +6078,15 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4961,31 +6094,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4993,39 +6126,39 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5033,60 +6166,60 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5094,7 +6227,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5102,39 +6235,39 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5142,7 +6275,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5150,7 +6283,7 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5158,68 +6291,68 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5227,23 +6360,23 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5251,40 +6384,40 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5292,20 +6425,20 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5313,23 +6446,23 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5337,81 +6470,81 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5419,15 +6552,15 @@
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,55 +6568,55 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B88" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5491,15 +6624,15 @@
         <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5507,20 +6640,20 @@
         <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5528,56 +6661,56 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -5585,20 +6718,20 @@
         <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,23 +6739,23 @@
         <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5630,63 +6763,63 @@
         <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -5694,15 +6827,15 @@
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -5710,31 +6843,31 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B123" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B125" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5742,12 +6875,12 @@
         <v>37</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5755,7 +6888,7 @@
         <v>38</v>
       </c>
       <c r="B128" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5763,7 +6896,7 @@
         <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5771,15 +6904,15 @@
         <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -5787,22 +6920,22 @@
         <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5810,7 +6943,7 @@
         <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5818,17 +6951,17 @@
         <v>66</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -5836,20 +6969,20 @@
         <v>40</v>
       </c>
       <c r="B140" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -5857,31 +6990,31 @@
         <v>43</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B145" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -5889,23 +7022,23 @@
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -5913,20 +7046,20 @@
         <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -5934,44 +7067,44 @@
         <v>48</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B154" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -5979,36 +7112,36 @@
         <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B163" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -6016,7 +7149,7 @@
         <v>50</v>
       </c>
       <c r="B164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -6024,15 +7157,15 @@
         <v>47</v>
       </c>
       <c r="B165" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B166" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -6040,7 +7173,7 @@
         <v>45</v>
       </c>
       <c r="B167" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -6048,12 +7181,12 @@
         <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -6061,15 +7194,15 @@
         <v>52</v>
       </c>
       <c r="B170" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B171" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -6077,7 +7210,7 @@
         <v>55</v>
       </c>
       <c r="B172" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -6085,7 +7218,7 @@
         <v>56</v>
       </c>
       <c r="B173" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -6093,23 +7226,23 @@
         <v>54</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B176" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -6117,65 +7250,65 @@
         <v>53</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -6183,15 +7316,15 @@
         <v>58</v>
       </c>
       <c r="B186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -6199,78 +7332,78 @@
         <v>57</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B192" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B195" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B198" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -6278,23 +7411,23 @@
         <v>59</v>
       </c>
       <c r="B199" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -6302,20 +7435,20 @@
         <v>60</v>
       </c>
       <c r="B202" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -6323,31 +7456,31 @@
         <v>68</v>
       </c>
       <c r="B205" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B207" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B208" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -6355,7 +7488,7 @@
         <v>64</v>
       </c>
       <c r="B209" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -6363,23 +7496,23 @@
         <v>24</v>
       </c>
       <c r="B210" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B211" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B212" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -6387,70 +7520,70 @@
         <v>62</v>
       </c>
       <c r="B213" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>450</v>
+      </c>
+      <c r="B215" t="s">
         <v>451</v>
-      </c>
-      <c r="B215" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B218" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B219" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B220" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B221" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -6458,15 +7591,15 @@
         <v>69</v>
       </c>
       <c r="B223" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B224" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -6474,7 +7607,7 @@
         <v>63</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -6482,15 +7615,15 @@
         <v>70</v>
       </c>
       <c r="B226" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -6498,54 +7631,54 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B231" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B232" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B234" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -6553,30 +7686,30 @@
         <v>72</v>
       </c>
       <c r="B236" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B238" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -6584,31 +7717,31 @@
         <v>73</v>
       </c>
       <c r="B241" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B242" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B243" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B244" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -6616,7 +7749,7 @@
         <v>71</v>
       </c>
       <c r="B245" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -6624,20 +7757,20 @@
         <v>74</v>
       </c>
       <c r="B246" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B247" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,15 +7778,15 @@
         <v>75</v>
       </c>
       <c r="B249" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B250" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -6661,39 +7794,39 @@
         <v>76</v>
       </c>
       <c r="B251" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B252" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B253" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B254" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B255" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -6701,20 +7834,20 @@
         <v>78</v>
       </c>
       <c r="B256" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B257" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,23 +7855,23 @@
         <v>61</v>
       </c>
       <c r="B259" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B260" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B261" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -6746,15 +7879,15 @@
         <v>65</v>
       </c>
       <c r="B262" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B263" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -6762,7 +7895,7 @@
         <v>79</v>
       </c>
       <c r="B264" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -6787,7 +7920,7 @@
     <col min="7" max="17" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -6806,30 +7939,28 @@
       <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
@@ -6848,13 +7979,13 @@
       <c r="F3">
         <v>0.35899999999999999</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -6874,11 +8005,11 @@
       <c r="F4">
         <v>1.304</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7210,10 +8341,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7">
         <f>AVERAGE(B20:P20)</f>
         <v>0.95586666666666686</v>
@@ -7267,10 +8398,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7">
         <f>AVERAGE(B22:P22)</f>
         <v>0.51600000000000001</v>
@@ -7324,10 +8455,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="7">
         <f>AVERAGE(B24:P24)</f>
         <v>1.0248571428571429</v>
@@ -7384,26 +8515,26 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="7">
         <f>AVERAGE(B26:P26)</f>
         <v>0.78953333333333331</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H1:L4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7412,9 +8543,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7426,31 +8555,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>2006</v>
@@ -7468,7 +8597,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -7684,7 +8813,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -7720,7 +8849,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17">
         <v>2004</v>
@@ -7756,7 +8885,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>2009</v>
@@ -7774,7 +8903,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>2000</v>
@@ -7792,7 +8921,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21">
         <v>2001</v>
@@ -7810,7 +8939,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>2000</v>
@@ -7828,7 +8957,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23">
         <v>2000</v>
@@ -7846,7 +8975,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24">
         <v>2000</v>
@@ -7864,7 +8993,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25">
         <v>2002</v>
@@ -7882,7 +9011,7 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26">
         <v>2009</v>
@@ -7900,7 +9029,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27">
         <v>2000</v>
@@ -7918,7 +9047,7 @@
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <v>2000</v>
@@ -7936,7 +9065,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29">
         <v>2005</v>
@@ -7972,7 +9101,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31">
         <v>2000</v>
@@ -7990,7 +9119,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32">
         <v>2000</v>
@@ -8026,7 +9155,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34">
         <v>2000</v>
@@ -8044,7 +9173,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35">
         <v>2000</v>
@@ -8062,7 +9191,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <v>2000</v>
@@ -8098,7 +9227,7 @@
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38">
         <v>2005</v>
@@ -8116,7 +9245,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39">
         <v>2000</v>
@@ -8134,7 +9263,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40">
         <v>2001</v>
@@ -8152,7 +9281,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41">
         <v>2002</v>
@@ -8188,7 +9317,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43">
         <v>2000</v>
@@ -8206,7 +9335,7 @@
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44">
         <v>2000</v>
@@ -8224,7 +9353,7 @@
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45">
         <v>2000</v>
@@ -8242,7 +9371,7 @@
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46">
         <v>2000</v>
@@ -8260,7 +9389,7 @@
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47">
         <v>2002</v>
@@ -8278,7 +9407,7 @@
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B48">
         <v>2000</v>
@@ -8314,7 +9443,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50">
         <v>2000</v>
@@ -8386,7 +9515,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>2001</v>
@@ -8404,7 +9533,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55">
         <v>2006</v>
@@ -8422,7 +9551,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56">
         <v>2004</v>
@@ -8440,7 +9569,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57">
         <v>2003</v>
@@ -8458,7 +9587,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B58">
         <v>2000</v>
@@ -8494,7 +9623,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B60">
         <v>2000</v>
@@ -8512,7 +9641,7 @@
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61">
         <v>2000</v>
@@ -8530,7 +9659,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B62">
         <v>2000</v>
@@ -8548,7 +9677,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B63">
         <v>2000</v>
@@ -8566,7 +9695,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B64">
         <v>2003</v>
@@ -8638,7 +9767,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B68">
         <v>2007</v>
@@ -8674,7 +9803,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B70">
         <v>2009</v>
@@ -8692,7 +9821,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B71">
         <v>2009</v>
@@ -8710,7 +9839,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>2001</v>
@@ -8728,7 +9857,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B73">
         <v>2000</v>
@@ -8764,7 +9893,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75">
         <v>2000</v>
@@ -8800,7 +9929,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77">
         <v>2009</v>
@@ -8854,7 +9983,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80">
         <v>2000</v>
@@ -8872,7 +10001,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81">
         <v>2000</v>
@@ -8890,7 +10019,7 @@
     </row>
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B82">
         <v>2001</v>
@@ -8908,7 +10037,7 @@
     </row>
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B83">
         <v>2001</v>
@@ -8926,7 +10055,7 @@
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84">
         <v>2001</v>
@@ -8944,7 +10073,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B85">
         <v>2000</v>
@@ -8962,7 +10091,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B86">
         <v>2000</v>
@@ -8980,7 +10109,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87">
         <v>2000</v>
@@ -8998,7 +10127,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>2000</v>
@@ -9034,7 +10163,7 @@
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90">
         <v>2010</v>
@@ -9052,7 +10181,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B91">
         <v>2000</v>
@@ -9070,7 +10199,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92">
         <v>2004</v>
@@ -9088,7 +10217,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93">
         <v>2002</v>
@@ -9106,7 +10235,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B94">
         <v>2000</v>
@@ -9142,7 +10271,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96">
         <v>2000</v>
@@ -9178,7 +10307,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98">
         <v>2000</v>
@@ -9196,7 +10325,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99">
         <v>2000</v>
@@ -9232,7 +10361,7 @@
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B101">
         <v>2007</v>
@@ -9250,7 +10379,7 @@
     </row>
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102">
         <v>2007</v>
@@ -9268,7 +10397,7 @@
     </row>
     <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B103">
         <v>2007</v>
@@ -9286,7 +10415,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104">
         <v>2007</v>
@@ -9322,7 +10451,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B106">
         <v>2003</v>
@@ -9340,7 +10469,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B107">
         <v>2000</v>
@@ -9358,7 +10487,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108">
         <v>2000</v>
@@ -9394,7 +10523,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B110">
         <v>2000</v>
@@ -9412,7 +10541,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B111">
         <v>2002</v>
@@ -9448,7 +10577,7 @@
     </row>
     <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B113">
         <v>2000</v>
@@ -9466,7 +10595,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>2000</v>
@@ -9484,7 +10613,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115">
         <v>2001</v>
@@ -9502,7 +10631,7 @@
     </row>
     <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B116">
         <v>2000</v>
@@ -9520,7 +10649,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B117">
         <v>2005</v>
@@ -9574,7 +10703,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>2009</v>
@@ -9592,7 +10721,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B121">
         <v>2000</v>
@@ -9646,7 +10775,7 @@
     </row>
     <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B124">
         <v>2000</v>
@@ -9664,7 +10793,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B125">
         <v>2000</v>
@@ -9682,7 +10811,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B126">
         <v>2005</v>
@@ -9700,7 +10829,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>2011</v>
@@ -9718,7 +10847,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128">
         <v>2000</v>
@@ -9736,7 +10865,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129">
         <v>2006</v>
@@ -9754,7 +10883,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B130">
         <v>2002</v>
@@ -9772,7 +10901,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131">
         <v>2005</v>
@@ -9790,7 +10919,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B132">
         <v>2000</v>
@@ -9808,7 +10937,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B133">
         <v>2004</v>
@@ -9826,7 +10955,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B134">
         <v>2000</v>
@@ -9862,7 +10991,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B136">
         <v>2009</v>
@@ -9880,7 +11009,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137">
         <v>2000</v>
@@ -9898,7 +11027,7 @@
     </row>
     <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B138">
         <v>2005</v>
@@ -9916,7 +11045,7 @@
     </row>
     <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B139">
         <v>2005</v>
@@ -9934,7 +11063,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B140">
         <v>2004</v>
@@ -9952,7 +11081,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B141">
         <v>2006</v>
@@ -9970,7 +11099,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142">
         <v>2000</v>
@@ -9988,7 +11117,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>2000</v>
@@ -10006,7 +11135,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144">
         <v>2000</v>
@@ -10078,7 +11207,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148">
         <v>2000</v>
@@ -10096,7 +11225,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B149">
         <v>2000</v>
@@ -10114,7 +11243,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B150">
         <v>2000</v>
@@ -10168,7 +11297,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B153">
         <v>2002</v>
@@ -10186,7 +11315,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B154">
         <v>2006</v>
@@ -10204,7 +11333,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B155">
         <v>2005</v>
@@ -10240,7 +11369,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B157">
         <v>2000</v>
@@ -10258,7 +11387,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B158">
         <v>2000</v>
@@ -10276,7 +11405,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B159">
         <v>2000</v>
@@ -10330,7 +11459,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B162">
         <v>2002</v>
@@ -10342,13 +11471,13 @@
         <v>0.16</v>
       </c>
       <c r="E162">
-        <f t="shared" ref="E162:E193" si="5">ABS(D162)</f>
+        <f t="shared" ref="E162:E163" si="5">ABS(D162)</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B163">
         <v>2013</v>
@@ -10540,36 +11669,36 @@
   <sheetData>
     <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="L1" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="F1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="L1" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>2006</v>
@@ -10587,7 +11716,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -10605,7 +11734,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4">
         <v>2002</v>
@@ -10623,7 +11752,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -10641,7 +11770,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6">
         <v>2001</v>
@@ -10659,7 +11788,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7">
         <v>2004</v>
@@ -10677,7 +11806,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8">
         <v>2008</v>
@@ -10695,7 +11824,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -10713,7 +11842,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -10731,7 +11860,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11">
         <v>2009</v>
@@ -10749,7 +11878,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -10767,7 +11896,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13">
         <v>2004</v>
@@ -10785,7 +11914,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14">
         <v>2004</v>
@@ -10803,7 +11932,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15">
         <v>2000</v>
@@ -10821,7 +11950,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16">
         <v>2000</v>
@@ -10839,7 +11968,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17">
         <v>2005</v>
@@ -10857,7 +11986,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18">
         <v>2000</v>
@@ -10875,7 +12004,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19">
         <v>2004</v>
@@ -10893,7 +12022,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B20">
         <v>2010</v>
@@ -10911,7 +12040,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21">
         <v>2002</v>
@@ -10929,7 +12058,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22">
         <v>2004</v>
@@ -10947,7 +12076,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23">
         <v>2000</v>
@@ -10965,7 +12094,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24">
         <v>2000</v>
@@ -10983,7 +12112,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B25">
         <v>2002</v>
@@ -11001,7 +12130,7 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26">
         <v>2009</v>
@@ -11015,7 +12144,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27">
         <v>2005</v>
@@ -11033,7 +12162,7 @@
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28">
         <v>2000</v>
@@ -11047,7 +12176,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29">
         <v>2006</v>
@@ -11065,7 +12194,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30">
         <v>2003</v>
@@ -11083,7 +12212,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31">
         <v>2000</v>
@@ -11101,7 +12230,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32">
         <v>2000</v>
@@ -11119,7 +12248,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33">
         <v>2001</v>
@@ -11137,7 +12266,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B34">
         <v>2001</v>
@@ -11155,7 +12284,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35">
         <v>2000</v>
@@ -11173,7 +12302,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B36">
         <v>2001</v>
@@ -11191,7 +12320,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37">
         <v>2003</v>
@@ -11209,7 +12338,7 @@
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B38">
         <v>2005</v>
@@ -11223,7 +12352,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B39">
         <v>2000</v>
@@ -11241,7 +12370,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B40">
         <v>2010</v>
@@ -11259,7 +12388,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B41">
         <v>2009</v>
@@ -11277,7 +12406,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42">
         <v>2000</v>
@@ -11295,7 +12424,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43">
         <v>2000</v>
@@ -11313,7 +12442,7 @@
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44">
         <v>2000</v>
@@ -11327,7 +12456,7 @@
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45">
         <v>2000</v>
@@ -11341,7 +12470,7 @@
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B46">
         <v>2000</v>
@@ -11355,7 +12484,7 @@
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B47">
         <v>2002</v>
@@ -11369,7 +12498,7 @@
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B48">
         <v>2000</v>
@@ -11383,7 +12512,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49">
         <v>2002</v>
@@ -11401,7 +12530,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50">
         <v>2000</v>
@@ -11419,7 +12548,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51">
         <v>2000</v>
@@ -11437,7 +12566,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B52">
         <v>2005</v>
@@ -11455,7 +12584,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53">
         <v>2000</v>
@@ -11473,7 +12602,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B54">
         <v>2000</v>
@@ -11491,7 +12620,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B55">
         <v>2004</v>
@@ -11509,7 +12638,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B56">
         <v>2000</v>
@@ -11527,7 +12656,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B57">
         <v>2004</v>
@@ -11545,7 +12674,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58">
         <v>2006</v>
@@ -11563,7 +12692,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B59">
         <v>2000</v>
@@ -11581,7 +12710,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B60">
         <v>2007</v>
@@ -11599,7 +12728,7 @@
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B61">
         <v>2000</v>
@@ -11613,7 +12742,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B62">
         <v>2000</v>
@@ -11631,7 +12760,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63">
         <v>2005</v>
@@ -11649,7 +12778,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B64">
         <v>2004</v>
@@ -11667,7 +12796,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B65">
         <v>2000</v>
@@ -11685,7 +12814,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B66">
         <v>2002</v>
@@ -11703,7 +12832,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B67">
         <v>2000</v>
@@ -11721,7 +12850,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B68">
         <v>2002</v>
@@ -11739,7 +12868,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69">
         <v>2002</v>
@@ -11757,7 +12886,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B70">
         <v>2009</v>
@@ -11775,7 +12904,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B71">
         <v>2000</v>
@@ -11793,7 +12922,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72">
         <v>2000</v>
@@ -11811,7 +12940,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B73">
         <v>2000</v>
@@ -11829,7 +12958,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B74">
         <v>2000</v>
@@ -11847,7 +12976,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B75">
         <v>2000</v>
@@ -11865,7 +12994,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B76">
         <v>2000</v>
@@ -11883,7 +13012,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B77">
         <v>2000</v>
@@ -11901,7 +13030,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B78">
         <v>2000</v>
@@ -11919,7 +13048,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B79">
         <v>2000</v>
@@ -11937,7 +13066,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B80">
         <v>2000</v>
@@ -11955,7 +13084,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81">
         <v>2000</v>
@@ -11973,7 +13102,7 @@
     </row>
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82">
         <v>2001</v>
@@ -11987,7 +13116,7 @@
     </row>
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B83">
         <v>2001</v>
@@ -12001,7 +13130,7 @@
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B84">
         <v>2001</v>
@@ -12015,7 +13144,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B85">
         <v>2001</v>
@@ -12033,7 +13162,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B86">
         <v>2000</v>
@@ -12051,7 +13180,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B87">
         <v>2000</v>
@@ -12069,7 +13198,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B88">
         <v>2000</v>
@@ -12087,7 +13216,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B89">
         <v>2000</v>
@@ -12105,7 +13234,7 @@
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B90">
         <v>2010</v>
@@ -12119,7 +13248,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B91">
         <v>2000</v>
@@ -12137,7 +13266,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B92">
         <v>2001</v>
@@ -12155,7 +13284,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B93">
         <v>2000</v>
@@ -12173,7 +13302,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94">
         <v>2000</v>
@@ -12191,7 +13320,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B95">
         <v>2000</v>
@@ -12209,7 +13338,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B96">
         <v>2000</v>
@@ -12227,7 +13356,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B97">
         <v>2009</v>
@@ -12245,7 +13374,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B98">
         <v>2000</v>
@@ -12263,7 +13392,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B99">
         <v>2009</v>
@@ -12281,7 +13410,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B100">
         <v>2007</v>
@@ -12299,7 +13428,7 @@
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B101">
         <v>2007</v>
@@ -12313,7 +13442,7 @@
     </row>
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B102">
         <v>2007</v>
@@ -12327,7 +13456,7 @@
     </row>
     <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B103">
         <v>2007</v>
@@ -12341,7 +13470,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B104">
         <v>2004</v>
@@ -12359,7 +13488,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B105">
         <v>2000</v>
@@ -12377,7 +13506,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B106">
         <v>2002</v>
@@ -12395,7 +13524,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B107">
         <v>2000</v>
@@ -12413,7 +13542,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B108">
         <v>2011</v>
@@ -12431,7 +13560,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B109">
         <v>2000</v>
@@ -12449,7 +13578,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B110">
         <v>2002</v>
@@ -12467,7 +13596,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B111">
         <v>2005</v>
@@ -12485,7 +13614,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B112">
         <v>2000</v>
@@ -12503,7 +13632,7 @@
     </row>
     <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B113">
         <v>2000</v>
@@ -12517,7 +13646,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B114">
         <v>2000</v>
@@ -12535,7 +13664,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B115">
         <v>2005</v>
@@ -12553,7 +13682,7 @@
     </row>
     <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B116">
         <v>2000</v>
@@ -12567,7 +13696,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B117">
         <v>2003</v>
@@ -12585,7 +13714,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B118">
         <v>2000</v>
@@ -12603,7 +13732,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B119">
         <v>2005</v>
@@ -12621,7 +13750,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B120">
         <v>2000</v>
@@ -12639,7 +13768,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B121">
         <v>2000</v>
@@ -12657,7 +13786,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B122">
         <v>2000</v>
@@ -12675,7 +13804,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B123">
         <v>2000</v>
@@ -12693,7 +13822,7 @@
     </row>
     <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B124">
         <v>2000</v>
@@ -12707,7 +13836,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B125">
         <v>2001</v>
@@ -12725,7 +13854,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B126">
         <v>2000</v>
@@ -12743,7 +13872,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B127">
         <v>2000</v>
@@ -12761,7 +13890,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B128">
         <v>2001</v>
@@ -12779,7 +13908,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B129">
         <v>2006</v>
@@ -12797,7 +13926,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B130">
         <v>2000</v>
@@ -12815,7 +13944,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B131">
         <v>2000</v>
@@ -12833,7 +13962,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B132">
         <v>2002</v>
@@ -12851,7 +13980,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B133">
         <v>2007</v>
@@ -12869,7 +13998,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B134">
         <v>2003</v>
@@ -12887,7 +14016,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B135">
         <v>2000</v>
@@ -12905,7 +14034,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B136">
         <v>2000</v>
@@ -12923,7 +14052,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B137">
         <v>2002</v>
@@ -12941,7 +14070,7 @@
     </row>
     <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B138">
         <v>2005</v>
@@ -12955,7 +14084,7 @@
     </row>
     <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B139">
         <v>2005</v>
@@ -12969,7 +14098,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B140">
         <v>2003</v>
@@ -12987,7 +14116,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B141">
         <v>2000</v>
@@ -13005,7 +14134,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B142">
         <v>2004</v>
@@ -13023,7 +14152,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B143">
         <v>2000</v>
@@ -13041,7 +14170,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B144">
         <v>2001</v>
@@ -13059,7 +14188,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145">
         <v>2001</v>
@@ -13077,7 +14206,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B146">
         <v>2004</v>
@@ -13095,7 +14224,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B147">
         <v>2011</v>
@@ -13113,7 +14242,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B148">
         <v>2000</v>
@@ -13131,7 +14260,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B149">
         <v>2004</v>
@@ -13149,7 +14278,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B150">
         <v>2000</v>
@@ -13167,7 +14296,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B151">
         <v>2000</v>
@@ -13185,7 +14314,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B152">
         <v>2013</v>
@@ -13203,7 +14332,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B153">
         <v>2009</v>
@@ -13221,7 +14350,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B154">
         <v>2004</v>
@@ -13239,7 +14368,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B155">
         <v>2001</v>
@@ -13257,7 +14386,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B156">
         <v>2001</v>
@@ -13275,7 +14404,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B157">
         <v>2013</v>
@@ -13293,7 +14422,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B158">
         <v>2009</v>
@@ -13311,7 +14440,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B159">
         <v>2000</v>
@@ -13329,7 +14458,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B160">
         <v>2004</v>
@@ -13347,7 +14476,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B161">
         <v>2006</v>
@@ -13365,7 +14494,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B162">
         <v>2000</v>
@@ -13383,7 +14512,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B163">
         <v>2000</v>
@@ -13575,212 +14704,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="F1" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="21">
+        <v>112</v>
+      </c>
+      <c r="B3" s="15">
         <v>3</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="21">
+        <v>186</v>
+      </c>
+      <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="21">
+        <v>124</v>
+      </c>
+      <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="15">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="21">
+        <v>112</v>
+      </c>
+      <c r="F4" s="15">
         <v>3</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="21">
+        <v>187</v>
+      </c>
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="15">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="21">
+        <v>124</v>
+      </c>
+      <c r="F5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="21">
+        <v>218</v>
+      </c>
+      <c r="B6" s="15">
         <v>6</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="15">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="21">
+        <v>143</v>
+      </c>
+      <c r="F6" s="15">
         <v>3</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="21">
+        <v>133</v>
+      </c>
+      <c r="B7" s="15">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="15">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="21">
+        <v>210</v>
+      </c>
+      <c r="F7" s="15">
         <v>3</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="21">
+        <v>198</v>
+      </c>
+      <c r="B8" s="15">
         <v>7</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="15">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="21">
+        <v>155</v>
+      </c>
+      <c r="F8" s="15">
         <v>4</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="21">
+        <v>203</v>
+      </c>
+      <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="15">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="21">
+        <v>187</v>
+      </c>
+      <c r="F9" s="15">
         <v>4</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="21">
+        <v>175</v>
+      </c>
+      <c r="B10" s="15">
         <v>9</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="15">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>461</v>
-      </c>
-      <c r="F10" s="21">
+        <v>460</v>
+      </c>
+      <c r="F10" s="15">
         <v>4</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="21">
+        <v>185</v>
+      </c>
+      <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="15">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="21">
+        <v>133</v>
+      </c>
+      <c r="F11" s="15">
         <v>5</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="15">
         <v>5</v>
       </c>
     </row>
@@ -13788,59 +14917,59 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>11</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <v>5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="21">
+        <v>213</v>
+      </c>
+      <c r="B13" s="15">
         <v>11</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="21">
+        <v>157</v>
+      </c>
+      <c r="F13" s="15">
         <v>5</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="21">
+        <v>186</v>
+      </c>
+      <c r="B14" s="15">
         <v>12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="21">
+        <v>170</v>
+      </c>
+      <c r="F14" s="15">
         <v>5</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="15">
         <v>5</v>
       </c>
     </row>
@@ -13848,179 +14977,179 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="15">
         <v>13</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="21">
+        <v>175</v>
+      </c>
+      <c r="F15" s="15">
         <v>5</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="21">
+        <v>217</v>
+      </c>
+      <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="15">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="21">
+        <v>189</v>
+      </c>
+      <c r="F16" s="15">
         <v>5</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="21">
+        <v>170</v>
+      </c>
+      <c r="B17" s="15">
         <v>16</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="15">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="21">
+        <v>163</v>
+      </c>
+      <c r="F17" s="15">
         <v>6</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="21">
+        <v>210</v>
+      </c>
+      <c r="B18" s="15">
         <v>16</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="15">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>446</v>
-      </c>
-      <c r="F18" s="21">
+        <v>445</v>
+      </c>
+      <c r="F18" s="15">
         <v>6</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="21">
+        <v>164</v>
+      </c>
+      <c r="B19" s="15">
         <v>17</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="15">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="21">
+        <v>192</v>
+      </c>
+      <c r="F19" s="15">
         <v>6</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="21">
+        <v>111</v>
+      </c>
+      <c r="B20" s="15">
         <v>18</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="15">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="21">
+        <v>211</v>
+      </c>
+      <c r="F20" s="15">
         <v>6</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="21">
+        <v>155</v>
+      </c>
+      <c r="B21" s="15">
         <v>18</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="15">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="21">
+        <v>217</v>
+      </c>
+      <c r="F21" s="15">
         <v>6</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="21">
+        <v>189</v>
+      </c>
+      <c r="B22" s="15">
         <v>18</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="15">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="21">
+        <v>218</v>
+      </c>
+      <c r="F22" s="15">
         <v>6</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="21">
+        <v>192</v>
+      </c>
+      <c r="B23" s="15">
         <v>18</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="15">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="21">
+        <v>125</v>
+      </c>
+      <c r="F23" s="15">
         <v>7</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="15">
         <v>7</v>
       </c>
     </row>
@@ -14028,219 +15157,219 @@
       <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="15">
         <v>18</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="15">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="21">
+        <v>142</v>
+      </c>
+      <c r="F24" s="15">
         <v>7</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="21">
+        <v>157</v>
+      </c>
+      <c r="B25" s="15">
         <v>19</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="15">
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="21">
+        <v>159</v>
+      </c>
+      <c r="F25" s="15">
         <v>7</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="21">
+        <v>183</v>
+      </c>
+      <c r="B26" s="15">
         <v>20</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="15">
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F26" s="21">
+        <v>435</v>
+      </c>
+      <c r="F26" s="15">
         <v>7</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" s="21">
+        <v>211</v>
+      </c>
+      <c r="B27" s="15">
         <v>20</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="15">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>481</v>
-      </c>
-      <c r="F27" s="21">
+        <v>480</v>
+      </c>
+      <c r="F27" s="15">
         <v>7</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="21">
+        <v>163</v>
+      </c>
+      <c r="B28" s="15">
         <v>21</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="15">
         <v>21</v>
       </c>
       <c r="E28" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="15">
         <v>7</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="21">
+        <v>166</v>
+      </c>
+      <c r="B29" s="15">
         <v>21</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="15">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="21">
+        <v>185</v>
+      </c>
+      <c r="F29" s="15">
         <v>7</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>436</v>
-      </c>
-      <c r="B30" s="21">
+        <v>435</v>
+      </c>
+      <c r="B30" s="15">
         <v>22</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="15">
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="21">
+        <v>190</v>
+      </c>
+      <c r="F30" s="15">
         <v>7</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="21">
+        <v>158</v>
+      </c>
+      <c r="B31" s="15">
         <v>23</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="15">
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="21">
+        <v>198</v>
+      </c>
+      <c r="F31" s="15">
         <v>7</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="21">
+        <v>113</v>
+      </c>
+      <c r="B32" s="15">
         <v>25</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="15">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="21">
+        <v>199</v>
+      </c>
+      <c r="F32" s="15">
         <v>7</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="21">
+        <v>146</v>
+      </c>
+      <c r="B33" s="15">
         <v>26</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="15">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="21">
+        <v>203</v>
+      </c>
+      <c r="F33" s="15">
         <v>7</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="21">
+        <v>171</v>
+      </c>
+      <c r="B34" s="15">
         <v>26</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="15">
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>472</v>
-      </c>
-      <c r="F34" s="21">
+        <v>471</v>
+      </c>
+      <c r="F34" s="15">
         <v>7</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="15">
         <v>7</v>
       </c>
     </row>
@@ -14248,19 +15377,19 @@
       <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="15">
         <v>26</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="15">
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="21">
+        <v>113</v>
+      </c>
+      <c r="F35" s="15">
         <v>8</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="15">
         <v>8</v>
       </c>
     </row>
@@ -14268,119 +15397,119 @@
       <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="15">
         <v>28</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="15">
         <v>28</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="15">
         <v>8</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="21">
+        <v>199</v>
+      </c>
+      <c r="B37" s="15">
         <v>29</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="15">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>407</v>
-      </c>
-      <c r="F37" s="21">
+        <v>406</v>
+      </c>
+      <c r="F37" s="15">
         <v>8</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="21">
+        <v>125</v>
+      </c>
+      <c r="B38" s="15">
         <v>31</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="15">
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="21">
+        <v>140</v>
+      </c>
+      <c r="F38" s="15">
         <v>8</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="21">
+        <v>142</v>
+      </c>
+      <c r="B39" s="15">
         <v>31</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="15">
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="21">
+        <v>144</v>
+      </c>
+      <c r="F39" s="15">
         <v>8</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="21">
+        <v>143</v>
+      </c>
+      <c r="B40" s="15">
         <v>31</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="15">
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="21">
+        <v>151</v>
+      </c>
+      <c r="F40" s="15">
         <v>8</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="21">
+        <v>159</v>
+      </c>
+      <c r="B41" s="15">
         <v>31</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="15">
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="21">
+        <v>171</v>
+      </c>
+      <c r="F41" s="15">
         <v>8</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="15">
         <v>8</v>
       </c>
     </row>
@@ -14388,19 +15517,19 @@
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="15">
         <v>31</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="15">
         <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="21">
+        <v>183</v>
+      </c>
+      <c r="F42" s="15">
         <v>8</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="15">
         <v>8</v>
       </c>
     </row>
@@ -14408,199 +15537,199 @@
       <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="15">
         <v>31</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="15">
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>443</v>
-      </c>
-      <c r="F43" s="21">
+        <v>442</v>
+      </c>
+      <c r="F43" s="15">
         <v>8</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>461</v>
-      </c>
-      <c r="B44" s="21">
+        <v>460</v>
+      </c>
+      <c r="B44" s="15">
         <v>32</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="15">
         <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="21">
+        <v>197</v>
+      </c>
+      <c r="F44" s="15">
         <v>8</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>443</v>
-      </c>
-      <c r="B45" s="21">
+        <v>442</v>
+      </c>
+      <c r="B45" s="15">
         <v>33</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="15">
         <v>33</v>
       </c>
       <c r="E45" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="15">
         <v>8</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="21">
+        <v>197</v>
+      </c>
+      <c r="B46" s="15">
         <v>33</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="15">
         <v>33</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="15">
         <v>9</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="21">
+        <v>151</v>
+      </c>
+      <c r="B47" s="15">
         <v>34</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="15">
         <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="21">
+        <v>137</v>
+      </c>
+      <c r="F47" s="15">
         <v>9</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="21">
+        <v>212</v>
+      </c>
+      <c r="B48" s="15">
         <v>34</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="15">
         <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="21">
+        <v>158</v>
+      </c>
+      <c r="F48" s="15">
         <v>9</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>446</v>
-      </c>
-      <c r="B49" s="21">
+        <v>445</v>
+      </c>
+      <c r="B49" s="15">
         <v>35</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="15">
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="21">
+        <v>166</v>
+      </c>
+      <c r="F49" s="15">
         <v>9</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>481</v>
-      </c>
-      <c r="B50" s="21">
+        <v>480</v>
+      </c>
+      <c r="B50" s="15">
         <v>36</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="15">
         <v>36</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="15">
         <v>9</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="21">
+        <v>190</v>
+      </c>
+      <c r="B51" s="15">
         <v>36</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="15">
         <v>36</v>
       </c>
       <c r="E51" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="15">
         <v>9</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>472</v>
-      </c>
-      <c r="B52" s="21">
+        <v>471</v>
+      </c>
+      <c r="B52" s="15">
         <v>36</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="15">
         <v>36</v>
       </c>
       <c r="E52" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="15">
         <v>9</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="15">
         <v>9</v>
       </c>
     </row>
@@ -14608,59 +15737,59 @@
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="15">
         <v>37</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="15">
         <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F53" s="21">
+        <v>212</v>
+      </c>
+      <c r="F53" s="15">
         <v>9</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="21">
+        <v>132</v>
+      </c>
+      <c r="B54" s="15">
         <v>40</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="15">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
-      </c>
-      <c r="F54" s="21">
+        <v>213</v>
+      </c>
+      <c r="F54" s="15">
         <v>9</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="21">
+        <v>144</v>
+      </c>
+      <c r="B55" s="15">
         <v>41</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="15">
         <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="21">
+        <v>111</v>
+      </c>
+      <c r="F55" s="15">
         <v>10</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="15">
         <v>10</v>
       </c>
     </row>
@@ -14668,59 +15797,59 @@
       <c r="A56" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="15">
         <v>42</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="15">
         <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" s="21">
+        <v>132</v>
+      </c>
+      <c r="F56" s="15">
         <v>10</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="21">
+        <v>137</v>
+      </c>
+      <c r="B57" s="15">
         <v>42</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="15">
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="21">
+        <v>146</v>
+      </c>
+      <c r="F57" s="15">
         <v>10</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="21">
+        <v>140</v>
+      </c>
+      <c r="B58" s="15">
         <v>42</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="15">
         <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
-      </c>
-      <c r="F58" s="21">
+        <v>164</v>
+      </c>
+      <c r="F58" s="15">
         <v>10</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="15">
         <v>10</v>
       </c>
     </row>
@@ -14728,19 +15857,19 @@
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="15">
         <v>42</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="15">
         <v>42</v>
       </c>
       <c r="E59" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="15">
         <v>10</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="15">
         <v>10</v>
       </c>
     </row>
@@ -14748,39 +15877,39 @@
       <c r="A60" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="15">
         <v>43</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="15">
         <v>43</v>
       </c>
       <c r="E60" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="15">
         <v>10</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>407</v>
-      </c>
-      <c r="B61" s="21">
+        <v>406</v>
+      </c>
+      <c r="B61" s="15">
         <v>44</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="15">
         <v>44</v>
       </c>
       <c r="E61" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="15">
         <v>10</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="15">
         <v>10</v>
       </c>
     </row>

--- a/Project-1-Post-Processing-of-Hadoop-Results.xlsx
+++ b/Project-1-Post-Processing-of-Hadoop-Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Question1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="484">
   <si>
     <t>Year</t>
   </si>
@@ -1459,12 +1459,6 @@
   </si>
   <si>
     <t>Region Name</t>
-  </si>
-  <si>
-    <t>PUT CHART TITLE IN PPT SLIDE ABOVE THE CHART!</t>
-  </si>
-  <si>
-    <t>PUT THE TABLE IN COLUMNS A THROUGH D IN THE PPT SLIDE BACKUPS!</t>
   </si>
   <si>
     <t>Micronesia - Fed. Sts.</t>
@@ -1566,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1620,8 +1614,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,11 +1913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168137472"/>
-        <c:axId val="168139392"/>
+        <c:axId val="185168640"/>
+        <c:axId val="185170560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168137472"/>
+        <c:axId val="185168640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168139392"/>
+        <c:crossAx val="185170560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168139392"/>
+        <c:axId val="185170560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168137472"/>
+        <c:crossAx val="185168640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,11 +2182,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168073856"/>
-        <c:axId val="168079744"/>
+        <c:axId val="185371264"/>
+        <c:axId val="185373056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168073856"/>
+        <c:axId val="185371264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2203,13 +2198,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168079744"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185373056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168079744"/>
+        <c:axId val="185373056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.2000000000000002"/>
@@ -2245,7 +2250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168073856"/>
+        <c:crossAx val="185371264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2433,11 +2438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168780160"/>
-        <c:axId val="168781696"/>
+        <c:axId val="185422208"/>
+        <c:axId val="185423744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168780160"/>
+        <c:axId val="185422208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2450,7 +2455,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="60000"/>
+          <a:bodyPr rot="-5400000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2459,13 +2464,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168781696"/>
+        <c:crossAx val="185423744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168781696"/>
+        <c:axId val="185423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2501,7 +2506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168780160"/>
+        <c:crossAx val="185422208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2689,11 +2694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168808448"/>
-        <c:axId val="168809984"/>
+        <c:axId val="185454592"/>
+        <c:axId val="185456128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168808448"/>
+        <c:axId val="185454592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2715,13 +2720,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168809984"/>
+        <c:crossAx val="185456128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168809984"/>
+        <c:axId val="185456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2.5"/>
@@ -2756,7 +2761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168808448"/>
+        <c:crossAx val="185454592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2946,11 +2951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="17052800"/>
-        <c:axId val="17054336"/>
+        <c:axId val="185542144"/>
+        <c:axId val="185543680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17052800"/>
+        <c:axId val="185542144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2972,13 +2977,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17054336"/>
+        <c:crossAx val="185543680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17054336"/>
+        <c:axId val="185543680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,7 +3017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17052800"/>
+        <c:crossAx val="185542144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -3273,11 +3278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168754176"/>
-        <c:axId val="168166528"/>
+        <c:axId val="185555584"/>
+        <c:axId val="185500416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168754176"/>
+        <c:axId val="185555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,7 +3315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168166528"/>
+        <c:crossAx val="185500416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3318,7 +3323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168166528"/>
+        <c:axId val="185500416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3360,7 +3365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168754176"/>
+        <c:crossAx val="185555584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -3601,11 +3606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168153472"/>
-        <c:axId val="168155392"/>
+        <c:axId val="184790016"/>
+        <c:axId val="185566336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168153472"/>
+        <c:axId val="184790016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,7 +3643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168155392"/>
+        <c:crossAx val="185566336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3646,7 +3651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168155392"/>
+        <c:axId val="185566336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3688,7 +3693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168153472"/>
+        <c:crossAx val="184790016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -3782,10 +3787,10 @@
       <xdr:rowOff>487680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3806,16 +3811,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>472440</xdr:rowOff>
+      <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3838,16 +3843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>472440</xdr:rowOff>
+      <xdr:rowOff>487680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3870,16 +3875,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>480060</xdr:rowOff>
+      <xdr:rowOff>502920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4621,11 +4626,9 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
-      <c r="N1" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5899,9 +5902,8 @@
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11657,7 +11659,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11690,11 +11692,9 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
-      <c r="L1" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -14679,9 +14679,8 @@
       <sortCondition descending="1" ref="E1:E163"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14692,7 +14691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14705,32 +14704,32 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C1" s="18"/>
       <c r="F1" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -15224,7 +15223,7 @@
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F27" s="15">
         <v>7</v>
@@ -15675,7 +15674,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B50" s="15">
         <v>36</v>

--- a/Project-1-Post-Processing-of-Hadoop-Results.xlsx
+++ b/Project-1-Post-Processing-of-Hadoop-Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Question1" sheetId="1" r:id="rId1"/>
@@ -1602,11 +1602,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1614,9 +1615,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,7 +1667,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1944,7 +1943,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1985,7 +1983,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2182,11 +2179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185371264"/>
-        <c:axId val="185373056"/>
+        <c:axId val="185703040"/>
+        <c:axId val="185708928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185371264"/>
+        <c:axId val="185703040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2208,13 +2205,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185373056"/>
+        <c:crossAx val="185708928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185373056"/>
+        <c:axId val="185708928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.2000000000000002"/>
@@ -2250,7 +2247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185371264"/>
+        <c:crossAx val="185703040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2438,11 +2435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185422208"/>
-        <c:axId val="185423744"/>
+        <c:axId val="186081664"/>
+        <c:axId val="186083200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185422208"/>
+        <c:axId val="186081664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2464,13 +2461,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185423744"/>
+        <c:crossAx val="186083200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185423744"/>
+        <c:axId val="186083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2506,7 +2503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185422208"/>
+        <c:crossAx val="186081664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2559,7 +2556,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2694,11 +2690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185454592"/>
-        <c:axId val="185456128"/>
+        <c:axId val="186114048"/>
+        <c:axId val="186115584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185454592"/>
+        <c:axId val="186114048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2720,13 +2716,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185456128"/>
+        <c:crossAx val="186115584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185456128"/>
+        <c:axId val="186115584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2.5"/>
@@ -2754,14 +2750,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185454592"/>
+        <c:crossAx val="186114048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,7 +2808,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2951,11 +2945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185542144"/>
-        <c:axId val="185543680"/>
+        <c:axId val="186004992"/>
+        <c:axId val="186006528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185542144"/>
+        <c:axId val="186004992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2016"/>
@@ -2977,13 +2971,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185543680"/>
+        <c:crossAx val="186006528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185543680"/>
+        <c:axId val="186006528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,14 +3004,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185542144"/>
+        <c:crossAx val="186004992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -3278,11 +3271,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185555584"/>
-        <c:axId val="185500416"/>
+        <c:axId val="186159488"/>
+        <c:axId val="186161408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185555584"/>
+        <c:axId val="186159488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,13 +3302,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185500416"/>
+        <c:crossAx val="186161408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3323,7 +3315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185500416"/>
+        <c:axId val="186161408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3365,7 +3357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185555584"/>
+        <c:crossAx val="186159488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -3606,11 +3598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184790016"/>
-        <c:axId val="185566336"/>
+        <c:axId val="186186368"/>
+        <c:axId val="185758464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184790016"/>
+        <c:axId val="186186368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185566336"/>
+        <c:crossAx val="185758464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3651,7 +3643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185566336"/>
+        <c:axId val="185758464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3693,7 +3685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184790016"/>
+        <c:crossAx val="186186368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -4620,15 +4612,15 @@
       <c r="G1" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7909,7 +7901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7948,13 +7940,13 @@
       <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -8343,10 +8335,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <f>AVERAGE(B20:P20)</f>
         <v>0.95586666666666686</v>
@@ -8400,10 +8392,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7">
         <f>AVERAGE(B22:P22)</f>
         <v>0.51600000000000001</v>
@@ -8457,10 +8449,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="7">
         <f>AVERAGE(B24:P24)</f>
         <v>1.0248571428571429</v>
@@ -8517,10 +8509,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="7">
         <f>AVERAGE(B26:P26)</f>
         <v>0.78953333333333331</v>
@@ -8571,13 +8563,13 @@
       <c r="E1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -11659,7 +11651,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11685,16 +11677,16 @@
       <c r="E1" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -14703,14 +14695,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="C1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
